--- a/static/Models/Classification/Equation/Service Sector.xlsx
+++ b/static/Models/Classification/Equation/Service Sector.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-22</t>
+    <t>2024-02-23</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>8.382267951965332</v>
+        <v>8.537785530090332</v>
       </c>
       <c r="C2">
-        <v>-1.073948860168457</v>
+        <v>-0.8884037733078003</v>
       </c>
       <c r="D2">
-        <v>14.44484233856201</v>
+        <v>14.53845977783203</v>
       </c>
       <c r="E2">
-        <v>7.895381927490234</v>
+        <v>7.97320032119751</v>
       </c>
       <c r="F2">
-        <v>1.305130243301392</v>
+        <v>1.423908948898315</v>
       </c>
       <c r="G2">
-        <v>-2.321409463882446</v>
+        <v>-2.790965557098389</v>
       </c>
       <c r="H2">
-        <v>3.07529616355896</v>
+        <v>3.228060722351074</v>
       </c>
       <c r="I2">
-        <v>-3.446549892425537</v>
+        <v>-3.307988166809082</v>
       </c>
       <c r="J2">
-        <v>-3.192075252532959</v>
+        <v>-3.446843862533569</v>
       </c>
       <c r="K2">
-        <v>1.587316870689392</v>
+        <v>1.127227425575256</v>
       </c>
       <c r="L2">
-        <v>-1.852818369865417</v>
+        <v>-2.057727098464966</v>
       </c>
       <c r="M2">
-        <v>0.5436960458755493</v>
+        <v>0.8292199969291687</v>
       </c>
       <c r="N2">
-        <v>-4.240370750427246</v>
+        <v>-4.398788928985596</v>
       </c>
       <c r="O2">
-        <v>5.646761894226074</v>
+        <v>5.758870124816895</v>
       </c>
       <c r="P2">
-        <v>-1.129886388778687</v>
+        <v>-1.176415681838989</v>
       </c>
       <c r="Q2">
-        <v>10.81455516815186</v>
+        <v>10.83138847351074</v>
       </c>
       <c r="R2">
-        <v>-1.620549917221069</v>
+        <v>-1.566826820373535</v>
       </c>
       <c r="S2">
-        <v>-14.56156349182129</v>
+        <v>-14.05211639404297</v>
       </c>
       <c r="T2">
-        <v>-6.933321952819824</v>
+        <v>-7.223554134368896</v>
       </c>
       <c r="U2">
-        <v>-15.11412715911865</v>
+        <v>-14.65167236328125</v>
       </c>
       <c r="V2">
-        <v>1.055535078048706</v>
+        <v>1.097929239273071</v>
       </c>
       <c r="W2">
-        <v>-14.30407524108887</v>
+        <v>-14.39331340789795</v>
       </c>
       <c r="X2">
-        <v>-3.053794145584106</v>
+        <v>-3.240151405334473</v>
       </c>
       <c r="Y2">
-        <v>-7.478333473205566</v>
+        <v>-7.559996128082275</v>
       </c>
       <c r="Z2">
-        <v>2.589364290237427</v>
+        <v>2.506593465805054</v>
       </c>
       <c r="AA2">
-        <v>1.117977499961853</v>
+        <v>1.064502358436584</v>
       </c>
       <c r="AB2">
-        <v>0.385379433631897</v>
+        <v>0.3094547986984253</v>
       </c>
       <c r="AC2">
-        <v>-1.713799715042114</v>
+        <v>-2.125495910644531</v>
       </c>
       <c r="AD2">
-        <v>0.6250767707824707</v>
+        <v>0.6087540984153748</v>
       </c>
       <c r="AE2">
-        <v>-1.555690884590149</v>
+        <v>-1.716897249221802</v>
       </c>
       <c r="AF2">
-        <v>-2.063648462295532</v>
+        <v>-1.578869581222534</v>
       </c>
       <c r="AG2">
-        <v>-5.390985012054443</v>
+        <v>-5.248394966125488</v>
       </c>
       <c r="AH2">
-        <v>-4.041949272155762</v>
+        <v>-4.610791206359863</v>
       </c>
       <c r="AI2">
-        <v>17.69861793518066</v>
+        <v>17.84955215454102</v>
       </c>
       <c r="AJ2">
-        <v>-0.8842474222183228</v>
+        <v>-0.8391528725624084</v>
       </c>
       <c r="AK2">
-        <v>2.853964328765869</v>
+        <v>2.797569036483765</v>
       </c>
       <c r="AL2">
-        <v>2.090774536132812</v>
+        <v>2.208326101303101</v>
       </c>
       <c r="AM2">
-        <v>-9.805923461914062</v>
+        <v>-9.694945335388184</v>
       </c>
       <c r="AN2">
-        <v>0.2922392785549164</v>
+        <v>0.09286920726299286</v>
       </c>
       <c r="AO2">
-        <v>-13.06128883361816</v>
+        <v>-12.95216369628906</v>
       </c>
       <c r="AP2">
-        <v>14.53401756286621</v>
+        <v>14.34946441650391</v>
       </c>
       <c r="AQ2">
-        <v>2.065420150756836</v>
+        <v>1.815264821052551</v>
       </c>
       <c r="AR2">
-        <v>-5.083290576934814</v>
+        <v>-5.131104469299316</v>
       </c>
       <c r="AS2">
-        <v>-6.209407329559326</v>
+        <v>-6.268095016479492</v>
       </c>
       <c r="AT2">
-        <v>0.1316880732774734</v>
+        <v>-0.2897171676158905</v>
       </c>
       <c r="AU2">
-        <v>-0.9941132068634033</v>
+        <v>-0.8395534753799438</v>
       </c>
       <c r="AV2">
-        <v>-5.396770477294922</v>
+        <v>-5.356427192687988</v>
       </c>
       <c r="AW2">
-        <v>1.635812878608704</v>
+        <v>1.878420114517212</v>
       </c>
       <c r="AX2">
-        <v>-0.6813016533851624</v>
+        <v>-0.5270910263061523</v>
       </c>
       <c r="AY2">
-        <v>-9.599398612976074</v>
+        <v>-9.651322364807129</v>
       </c>
       <c r="AZ2">
-        <v>-5.861122131347656</v>
+        <v>-5.753957748413086</v>
       </c>
       <c r="BA2">
-        <v>9.400905609130859</v>
+        <v>9.185881614685059</v>
       </c>
       <c r="BB2">
-        <v>3.25508189201355</v>
+        <v>3.196473360061646</v>
       </c>
       <c r="BC2">
-        <v>-0.1947475075721741</v>
+        <v>0.1577993631362915</v>
       </c>
       <c r="BD2">
-        <v>0.9215325713157654</v>
+        <v>0.9864498972892761</v>
       </c>
       <c r="BE2">
-        <v>-0.3092915117740631</v>
+        <v>-0.3161844313144684</v>
       </c>
       <c r="BF2">
-        <v>-1.611063480377197</v>
+        <v>-1.666873931884766</v>
       </c>
       <c r="BG2">
-        <v>0.52778559923172</v>
+        <v>0.4426557421684265</v>
       </c>
       <c r="BH2">
-        <v>0.1414411962032318</v>
+        <v>0.4211311340332031</v>
       </c>
       <c r="BI2">
-        <v>-5.678865909576416</v>
+        <v>-5.98477029800415</v>
       </c>
       <c r="BJ2">
-        <v>2.101900577545166</v>
+        <v>1.838888764381409</v>
       </c>
       <c r="BK2">
-        <v>0.02673621848225594</v>
+        <v>-0.01314229797571898</v>
       </c>
       <c r="BL2">
-        <v>6.468013763427734</v>
+        <v>6.598674774169922</v>
       </c>
       <c r="BM2">
-        <v>-4.915322780609131</v>
+        <v>-4.976998329162598</v>
       </c>
       <c r="BN2">
-        <v>-1.217226147651672</v>
+        <v>-1.091938138008118</v>
       </c>
       <c r="BO2">
-        <v>0.7229073047637939</v>
+        <v>0.747546374797821</v>
       </c>
       <c r="BP2">
-        <v>-1.576987862586975</v>
+        <v>-1.788748741149902</v>
       </c>
       <c r="BQ2">
-        <v>-4.679133892059326</v>
+        <v>-4.694496631622314</v>
       </c>
       <c r="BR2">
-        <v>4.887374877929688</v>
+        <v>5.184152126312256</v>
       </c>
       <c r="BS2">
-        <v>1.521921157836914</v>
+        <v>1.685579061508179</v>
       </c>
       <c r="BT2">
-        <v>4.522826671600342</v>
+        <v>4.422171115875244</v>
       </c>
       <c r="BU2">
-        <v>1.154327750205994</v>
+        <v>0.9861788153648376</v>
       </c>
       <c r="BV2">
-        <v>-6.618153095245361</v>
+        <v>-6.924376964569092</v>
       </c>
       <c r="BW2">
-        <v>2.201903820037842</v>
+        <v>2.175502061843872</v>
       </c>
       <c r="BX2">
-        <v>-5.326971054077148</v>
+        <v>-5.503909111022949</v>
       </c>
       <c r="BY2">
-        <v>0.6246282458305359</v>
+        <v>0.6088507175445557</v>
       </c>
       <c r="BZ2">
-        <v>-2.116864442825317</v>
+        <v>-2.314019918441772</v>
       </c>
       <c r="CA2">
-        <v>-10.28238105773926</v>
+        <v>-10.09114265441895</v>
       </c>
       <c r="CB2">
-        <v>-2.003995656967163</v>
+        <v>-2.018695831298828</v>
       </c>
       <c r="CC2">
-        <v>2.878593444824219</v>
+        <v>3.043349266052246</v>
       </c>
       <c r="CD2">
-        <v>-1.262055516242981</v>
+        <v>-1.410405278205872</v>
       </c>
       <c r="CE2">
-        <v>-1.116009473800659</v>
+        <v>-1.150368571281433</v>
       </c>
       <c r="CF2">
-        <v>0.111077569425106</v>
+        <v>-0.2949599027633667</v>
       </c>
       <c r="CG2">
-        <v>1.248597145080566</v>
+        <v>1.229947090148926</v>
       </c>
       <c r="CH2">
-        <v>-17.32375907897949</v>
+        <v>-16.61343574523926</v>
       </c>
       <c r="CI2">
-        <v>0.195798471570015</v>
+        <v>0.2115687131881714</v>
       </c>
       <c r="CJ2">
-        <v>-13.76784515380859</v>
+        <v>-13.90528297424316</v>
       </c>
       <c r="CK2">
-        <v>-1.019385695457458</v>
+        <v>-1.274624705314636</v>
       </c>
       <c r="CL2">
-        <v>-1.32477867603302</v>
+        <v>-1.178832530975342</v>
       </c>
       <c r="CM2">
-        <v>-10.24833965301514</v>
+        <v>-10.34638690948486</v>
       </c>
       <c r="CN2">
-        <v>-1.293119311332703</v>
+        <v>-1.493061542510986</v>
       </c>
       <c r="CO2">
-        <v>-2.623959302902222</v>
+        <v>-2.499979734420776</v>
       </c>
       <c r="CP2">
-        <v>7.242214202880859</v>
+        <v>7.502964019775391</v>
       </c>
       <c r="CQ2">
-        <v>5.025534629821777</v>
+        <v>4.818028450012207</v>
       </c>
       <c r="CR2">
-        <v>3.65654730796814</v>
+        <v>3.834099769592285</v>
       </c>
       <c r="CS2">
-        <v>1.616863608360291</v>
+        <v>1.571052193641663</v>
       </c>
       <c r="CT2">
-        <v>-1.820725321769714</v>
+        <v>-1.679568648338318</v>
       </c>
       <c r="CU2">
-        <v>0.4782630503177643</v>
+        <v>0.589979350566864</v>
       </c>
       <c r="CV2">
-        <v>-2.122418403625488</v>
+        <v>-2.09393310546875</v>
       </c>
       <c r="CW2">
-        <v>-4.03291654586792</v>
+        <v>-4.000923633575439</v>
       </c>
       <c r="CX2">
-        <v>0.2079510986804962</v>
+        <v>0.2617683410644531</v>
       </c>
       <c r="CY2">
-        <v>-7.185537815093994</v>
+        <v>-6.938669204711914</v>
       </c>
       <c r="CZ2">
-        <v>-3.239029884338379</v>
+        <v>-3.203809261322021</v>
       </c>
       <c r="DA2">
-        <v>-4.280272483825684</v>
+        <v>-4.298296451568604</v>
       </c>
       <c r="DB2">
-        <v>-9.26765251159668</v>
+        <v>-9.578595161437988</v>
       </c>
       <c r="DC2">
-        <v>1.064012050628662</v>
+        <v>0.8769383430480957</v>
       </c>
       <c r="DD2">
-        <v>-14.90534400939941</v>
+        <v>-15.05469131469727</v>
       </c>
       <c r="DE2">
-        <v>-2.070218086242676</v>
+        <v>-2.200361728668213</v>
       </c>
       <c r="DF2">
-        <v>-1.695571780204773</v>
+        <v>-1.509640574455261</v>
       </c>
       <c r="DG2">
-        <v>0.7383438944816589</v>
+        <v>0.469365656375885</v>
       </c>
       <c r="DH2">
-        <v>-9.46677303314209</v>
+        <v>-9.626873016357422</v>
       </c>
       <c r="DI2">
-        <v>-1.781257510185242</v>
+        <v>-1.901587247848511</v>
       </c>
       <c r="DJ2">
-        <v>11.75450420379639</v>
+        <v>11.89783763885498</v>
       </c>
       <c r="DK2">
-        <v>2.939796447753906</v>
+        <v>2.634515523910522</v>
       </c>
       <c r="DL2">
-        <v>-17.21502113342285</v>
+        <v>-17.47604751586914</v>
       </c>
       <c r="DM2">
-        <v>-2.542425632476807</v>
+        <v>-2.884955167770386</v>
       </c>
       <c r="DN2">
-        <v>0.09813967347145081</v>
+        <v>0.1091052442789078</v>
       </c>
       <c r="DO2">
-        <v>-3.86522650718689</v>
+        <v>-3.785977602005005</v>
       </c>
       <c r="DP2">
-        <v>15.65035343170166</v>
+        <v>15.85601425170898</v>
       </c>
       <c r="DQ2">
-        <v>1.874379277229309</v>
+        <v>1.887867331504822</v>
       </c>
       <c r="DR2">
-        <v>-0.3917462229728699</v>
+        <v>-0.5230355858802795</v>
       </c>
       <c r="DS2">
-        <v>-1.222677826881409</v>
+        <v>-1.229710578918457</v>
       </c>
       <c r="DT2">
-        <v>4.607997894287109</v>
+        <v>4.626918315887451</v>
       </c>
       <c r="DU2">
-        <v>-9.047286987304688</v>
+        <v>-9.307900428771973</v>
       </c>
       <c r="DV2">
-        <v>3.212689876556396</v>
+        <v>3.040374517440796</v>
       </c>
       <c r="DW2">
-        <v>1.203500986099243</v>
+        <v>1.712109088897705</v>
       </c>
       <c r="DX2">
-        <v>-0.9066248536109924</v>
+        <v>-0.8884037137031555</v>
       </c>
       <c r="DY2">
-        <v>-3.633146524429321</v>
+        <v>-3.735433340072632</v>
       </c>
       <c r="DZ2">
-        <v>-2.660102128982544</v>
+        <v>-2.800158739089966</v>
       </c>
       <c r="EA2">
-        <v>14.38167953491211</v>
+        <v>14.05590629577637</v>
       </c>
       <c r="EB2">
-        <v>0.6617967486381531</v>
+        <v>0.6445956230163574</v>
       </c>
       <c r="EC2">
-        <v>-0.9324396252632141</v>
+        <v>-0.8266176581382751</v>
       </c>
       <c r="ED2">
-        <v>-5.575963497161865</v>
+        <v>-5.826600074768066</v>
       </c>
       <c r="EE2">
-        <v>-2.543716907501221</v>
+        <v>-2.670063018798828</v>
       </c>
       <c r="EF2">
-        <v>-0.596592128276825</v>
+        <v>-0.6324613094329834</v>
       </c>
       <c r="EG2">
-        <v>1.008891940116882</v>
+        <v>1.131986737251282</v>
       </c>
       <c r="EH2">
-        <v>-10.01494693756104</v>
+        <v>-10.27736282348633</v>
       </c>
       <c r="EI2">
-        <v>1.870054602622986</v>
+        <v>1.688185930252075</v>
       </c>
       <c r="EJ2">
-        <v>13.68814563751221</v>
+        <v>13.93494701385498</v>
       </c>
       <c r="EK2">
-        <v>3.746482133865356</v>
+        <v>3.969501972198486</v>
       </c>
       <c r="EL2">
-        <v>0.1064683124423027</v>
+        <v>0.1652452945709229</v>
       </c>
       <c r="EM2">
-        <v>7.067019462585449</v>
+        <v>7.157652854919434</v>
       </c>
       <c r="EN2">
-        <v>9.246345520019531</v>
+        <v>9.039307594299316</v>
       </c>
       <c r="EO2">
-        <v>6.760978698730469</v>
+        <v>6.727365493774414</v>
       </c>
       <c r="EP2">
-        <v>-8.954315185546875</v>
+        <v>-8.931743621826172</v>
       </c>
       <c r="EQ2">
-        <v>16.16802406311035</v>
+        <v>16.1456356048584</v>
       </c>
       <c r="ER2">
-        <v>-0.6150929927825928</v>
+        <v>-0.4907858967781067</v>
       </c>
       <c r="ES2">
-        <v>-20.87725448608398</v>
+        <v>-21.64229011535645</v>
       </c>
       <c r="ET2">
-        <v>-1.438910007476807</v>
+        <v>-1.557534575462341</v>
       </c>
       <c r="EU2">
-        <v>2.204866647720337</v>
+        <v>2.111170291900635</v>
       </c>
       <c r="EV2">
-        <v>1.387082457542419</v>
+        <v>1.108795881271362</v>
       </c>
       <c r="EW2">
-        <v>-2.895973443984985</v>
+        <v>-2.951727867126465</v>
       </c>
       <c r="EX2">
-        <v>-18.47934722900391</v>
+        <v>-18.60907173156738</v>
       </c>
       <c r="EY2">
-        <v>2.658647775650024</v>
+        <v>2.395742654800415</v>
       </c>
       <c r="EZ2">
-        <v>2.019792079925537</v>
+        <v>2.031633853912354</v>
       </c>
       <c r="FA2">
-        <v>-0.8169582486152649</v>
+        <v>-1.020886301994324</v>
       </c>
       <c r="FB2">
-        <v>0.5990195274353027</v>
+        <v>0.4525597989559174</v>
       </c>
       <c r="FC2">
-        <v>5.939462184906006</v>
+        <v>5.835752964019775</v>
       </c>
       <c r="FD2">
-        <v>-1.030920147895813</v>
+        <v>-1.082315921783447</v>
       </c>
       <c r="FE2">
-        <v>-14.0476188659668</v>
+        <v>-14.03885936737061</v>
       </c>
       <c r="FF2">
-        <v>0.02285081893205643</v>
+        <v>-0.04308998957276344</v>
       </c>
       <c r="FG2">
-        <v>-16.16662216186523</v>
+        <v>-15.52275371551514</v>
       </c>
       <c r="FH2">
-        <v>0.6404303908348083</v>
+        <v>0.7647238373756409</v>
       </c>
       <c r="FI2">
-        <v>-17.62923049926758</v>
+        <v>-17.18095588684082</v>
       </c>
       <c r="FJ2">
-        <v>-2.241539478302002</v>
+        <v>-2.161709308624268</v>
       </c>
       <c r="FK2">
-        <v>10.17179107666016</v>
+        <v>10.55303001403809</v>
       </c>
       <c r="FL2">
-        <v>-9.870368957519531</v>
+        <v>-9.587145805358887</v>
       </c>
       <c r="FM2">
-        <v>4.005710601806641</v>
+        <v>4.116047382354736</v>
       </c>
       <c r="FN2">
-        <v>5.407132148742676</v>
+        <v>5.526006698608398</v>
       </c>
       <c r="FO2">
-        <v>0.9431741237640381</v>
+        <v>0.7488705515861511</v>
       </c>
       <c r="FP2">
-        <v>-2.087632417678833</v>
+        <v>-2.039190530776978</v>
       </c>
       <c r="FQ2">
-        <v>0.3702491819858551</v>
+        <v>0.4661880433559418</v>
       </c>
       <c r="FR2">
-        <v>3.939857244491577</v>
+        <v>3.805588722229004</v>
       </c>
       <c r="FS2">
-        <v>-0.3617632389068604</v>
+        <v>-0.2053079307079315</v>
       </c>
       <c r="FT2">
-        <v>-1.349275708198547</v>
+        <v>-1.202964186668396</v>
       </c>
       <c r="FU2">
-        <v>-5.160552978515625</v>
+        <v>-5.515493869781494</v>
       </c>
       <c r="FV2">
-        <v>0.3464882373809814</v>
+        <v>0.1483234614133835</v>
       </c>
       <c r="FW2">
-        <v>1.248807549476624</v>
+        <v>0.9640578031539917</v>
       </c>
       <c r="FX2">
-        <v>3.554303884506226</v>
+        <v>3.257350921630859</v>
       </c>
       <c r="FY2">
-        <v>1.315134644508362</v>
+        <v>1.387901782989502</v>
       </c>
       <c r="FZ2">
-        <v>-0.7781013250350952</v>
+        <v>-0.9715380072593689</v>
       </c>
       <c r="GA2">
-        <v>-2.524305820465088</v>
+        <v>-2.582316398620605</v>
       </c>
       <c r="GB2">
-        <v>1.844035983085632</v>
+        <v>1.968883037567139</v>
       </c>
       <c r="GC2">
-        <v>-3.344592332839966</v>
+        <v>-3.360345363616943</v>
       </c>
       <c r="GD2">
-        <v>1.405067801475525</v>
+        <v>1.248937010765076</v>
       </c>
       <c r="GE2">
-        <v>-1.771259188652039</v>
+        <v>-1.724252820014954</v>
       </c>
       <c r="GF2">
-        <v>1.327078223228455</v>
+        <v>1.029799580574036</v>
       </c>
       <c r="GG2">
-        <v>0.3976929187774658</v>
+        <v>0.3341731429100037</v>
       </c>
       <c r="GH2">
-        <v>3.561336517333984</v>
+        <v>3.607200622558594</v>
       </c>
       <c r="GI2">
-        <v>-2.018994808197021</v>
+        <v>-2.37018895149231</v>
       </c>
       <c r="GJ2">
-        <v>0.8914233446121216</v>
+        <v>1.380095362663269</v>
       </c>
       <c r="GK2">
-        <v>-10.21102905273438</v>
+        <v>-9.783917427062988</v>
       </c>
       <c r="GL2">
-        <v>-13.481858253479</v>
+        <v>-13.56179618835449</v>
       </c>
       <c r="GM2">
-        <v>7.150115489959717</v>
+        <v>7.372698307037354</v>
       </c>
       <c r="GN2">
-        <v>-4.848196983337402</v>
+        <v>-4.870887279510498</v>
       </c>
       <c r="GO2">
-        <v>12.02193355560303</v>
+        <v>11.97440433502197</v>
       </c>
       <c r="GP2">
-        <v>-0.5670021176338196</v>
+        <v>-0.5355536937713623</v>
       </c>
       <c r="GQ2">
-        <v>-1.115224003791809</v>
+        <v>-1.135886192321777</v>
       </c>
       <c r="GR2">
-        <v>0.8617048859596252</v>
+        <v>0.4560765624046326</v>
       </c>
       <c r="GS2">
-        <v>-4.546113014221191</v>
+        <v>-4.336967945098877</v>
       </c>
       <c r="GT2">
-        <v>0.1975540965795517</v>
+        <v>0.03203872591257095</v>
       </c>
       <c r="GU2">
-        <v>-2.272128105163574</v>
+        <v>-2.028913736343384</v>
       </c>
       <c r="GV2">
-        <v>2.224687814712524</v>
+        <v>1.906770825386047</v>
       </c>
       <c r="GW2">
-        <v>-9.362882614135742</v>
+        <v>-9.65704345703125</v>
       </c>
       <c r="GX2">
-        <v>0.007875550538301468</v>
+        <v>0.1083121448755264</v>
       </c>
       <c r="GY2">
-        <v>-1.043455481529236</v>
+        <v>-1.041611194610596</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Service Sector.xlsx
+++ b/static/Models/Classification/Equation/Service Sector.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-23</t>
+    <t>2024-02-22</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>8.537785530090332</v>
+        <v>8.382267951965332</v>
       </c>
       <c r="C2">
-        <v>-0.8884037733078003</v>
+        <v>-1.073948860168457</v>
       </c>
       <c r="D2">
-        <v>14.53845977783203</v>
+        <v>14.44484233856201</v>
       </c>
       <c r="E2">
-        <v>7.97320032119751</v>
+        <v>7.895381927490234</v>
       </c>
       <c r="F2">
-        <v>1.423908948898315</v>
+        <v>1.305130243301392</v>
       </c>
       <c r="G2">
-        <v>-2.790965557098389</v>
+        <v>-2.321409463882446</v>
       </c>
       <c r="H2">
-        <v>3.228060722351074</v>
+        <v>3.07529616355896</v>
       </c>
       <c r="I2">
-        <v>-3.307988166809082</v>
+        <v>-3.446549892425537</v>
       </c>
       <c r="J2">
-        <v>-3.446843862533569</v>
+        <v>-3.192075252532959</v>
       </c>
       <c r="K2">
-        <v>1.127227425575256</v>
+        <v>1.587316870689392</v>
       </c>
       <c r="L2">
-        <v>-2.057727098464966</v>
+        <v>-1.852818369865417</v>
       </c>
       <c r="M2">
-        <v>0.8292199969291687</v>
+        <v>0.5436960458755493</v>
       </c>
       <c r="N2">
-        <v>-4.398788928985596</v>
+        <v>-4.240370750427246</v>
       </c>
       <c r="O2">
-        <v>5.758870124816895</v>
+        <v>5.646761894226074</v>
       </c>
       <c r="P2">
-        <v>-1.176415681838989</v>
+        <v>-1.129886388778687</v>
       </c>
       <c r="Q2">
-        <v>10.83138847351074</v>
+        <v>10.81455516815186</v>
       </c>
       <c r="R2">
-        <v>-1.566826820373535</v>
+        <v>-1.620549917221069</v>
       </c>
       <c r="S2">
-        <v>-14.05211639404297</v>
+        <v>-14.56156349182129</v>
       </c>
       <c r="T2">
-        <v>-7.223554134368896</v>
+        <v>-6.933321952819824</v>
       </c>
       <c r="U2">
-        <v>-14.65167236328125</v>
+        <v>-15.11412715911865</v>
       </c>
       <c r="V2">
-        <v>1.097929239273071</v>
+        <v>1.055535078048706</v>
       </c>
       <c r="W2">
-        <v>-14.39331340789795</v>
+        <v>-14.30407524108887</v>
       </c>
       <c r="X2">
-        <v>-3.240151405334473</v>
+        <v>-3.053794145584106</v>
       </c>
       <c r="Y2">
-        <v>-7.559996128082275</v>
+        <v>-7.478333473205566</v>
       </c>
       <c r="Z2">
-        <v>2.506593465805054</v>
+        <v>2.589364290237427</v>
       </c>
       <c r="AA2">
-        <v>1.064502358436584</v>
+        <v>1.117977499961853</v>
       </c>
       <c r="AB2">
-        <v>0.3094547986984253</v>
+        <v>0.385379433631897</v>
       </c>
       <c r="AC2">
-        <v>-2.125495910644531</v>
+        <v>-1.713799715042114</v>
       </c>
       <c r="AD2">
-        <v>0.6087540984153748</v>
+        <v>0.6250767707824707</v>
       </c>
       <c r="AE2">
-        <v>-1.716897249221802</v>
+        <v>-1.555690884590149</v>
       </c>
       <c r="AF2">
-        <v>-1.578869581222534</v>
+        <v>-2.063648462295532</v>
       </c>
       <c r="AG2">
-        <v>-5.248394966125488</v>
+        <v>-5.390985012054443</v>
       </c>
       <c r="AH2">
-        <v>-4.610791206359863</v>
+        <v>-4.041949272155762</v>
       </c>
       <c r="AI2">
-        <v>17.84955215454102</v>
+        <v>17.69861793518066</v>
       </c>
       <c r="AJ2">
-        <v>-0.8391528725624084</v>
+        <v>-0.8842474222183228</v>
       </c>
       <c r="AK2">
-        <v>2.797569036483765</v>
+        <v>2.853964328765869</v>
       </c>
       <c r="AL2">
-        <v>2.208326101303101</v>
+        <v>2.090774536132812</v>
       </c>
       <c r="AM2">
-        <v>-9.694945335388184</v>
+        <v>-9.805923461914062</v>
       </c>
       <c r="AN2">
-        <v>0.09286920726299286</v>
+        <v>0.2922392785549164</v>
       </c>
       <c r="AO2">
-        <v>-12.95216369628906</v>
+        <v>-13.06128883361816</v>
       </c>
       <c r="AP2">
-        <v>14.34946441650391</v>
+        <v>14.53401756286621</v>
       </c>
       <c r="AQ2">
-        <v>1.815264821052551</v>
+        <v>2.065420150756836</v>
       </c>
       <c r="AR2">
-        <v>-5.131104469299316</v>
+        <v>-5.083290576934814</v>
       </c>
       <c r="AS2">
-        <v>-6.268095016479492</v>
+        <v>-6.209407329559326</v>
       </c>
       <c r="AT2">
-        <v>-0.2897171676158905</v>
+        <v>0.1316880732774734</v>
       </c>
       <c r="AU2">
-        <v>-0.8395534753799438</v>
+        <v>-0.9941132068634033</v>
       </c>
       <c r="AV2">
-        <v>-5.356427192687988</v>
+        <v>-5.396770477294922</v>
       </c>
       <c r="AW2">
-        <v>1.878420114517212</v>
+        <v>1.635812878608704</v>
       </c>
       <c r="AX2">
-        <v>-0.5270910263061523</v>
+        <v>-0.6813016533851624</v>
       </c>
       <c r="AY2">
-        <v>-9.651322364807129</v>
+        <v>-9.599398612976074</v>
       </c>
       <c r="AZ2">
-        <v>-5.753957748413086</v>
+        <v>-5.861122131347656</v>
       </c>
       <c r="BA2">
-        <v>9.185881614685059</v>
+        <v>9.400905609130859</v>
       </c>
       <c r="BB2">
-        <v>3.196473360061646</v>
+        <v>3.25508189201355</v>
       </c>
       <c r="BC2">
-        <v>0.1577993631362915</v>
+        <v>-0.1947475075721741</v>
       </c>
       <c r="BD2">
-        <v>0.9864498972892761</v>
+        <v>0.9215325713157654</v>
       </c>
       <c r="BE2">
-        <v>-0.3161844313144684</v>
+        <v>-0.3092915117740631</v>
       </c>
       <c r="BF2">
-        <v>-1.666873931884766</v>
+        <v>-1.611063480377197</v>
       </c>
       <c r="BG2">
-        <v>0.4426557421684265</v>
+        <v>0.52778559923172</v>
       </c>
       <c r="BH2">
-        <v>0.4211311340332031</v>
+        <v>0.1414411962032318</v>
       </c>
       <c r="BI2">
-        <v>-5.98477029800415</v>
+        <v>-5.678865909576416</v>
       </c>
       <c r="BJ2">
-        <v>1.838888764381409</v>
+        <v>2.101900577545166</v>
       </c>
       <c r="BK2">
-        <v>-0.01314229797571898</v>
+        <v>0.02673621848225594</v>
       </c>
       <c r="BL2">
-        <v>6.598674774169922</v>
+        <v>6.468013763427734</v>
       </c>
       <c r="BM2">
-        <v>-4.976998329162598</v>
+        <v>-4.915322780609131</v>
       </c>
       <c r="BN2">
-        <v>-1.091938138008118</v>
+        <v>-1.217226147651672</v>
       </c>
       <c r="BO2">
-        <v>0.747546374797821</v>
+        <v>0.7229073047637939</v>
       </c>
       <c r="BP2">
-        <v>-1.788748741149902</v>
+        <v>-1.576987862586975</v>
       </c>
       <c r="BQ2">
-        <v>-4.694496631622314</v>
+        <v>-4.679133892059326</v>
       </c>
       <c r="BR2">
-        <v>5.184152126312256</v>
+        <v>4.887374877929688</v>
       </c>
       <c r="BS2">
-        <v>1.685579061508179</v>
+        <v>1.521921157836914</v>
       </c>
       <c r="BT2">
-        <v>4.422171115875244</v>
+        <v>4.522826671600342</v>
       </c>
       <c r="BU2">
-        <v>0.9861788153648376</v>
+        <v>1.154327750205994</v>
       </c>
       <c r="BV2">
-        <v>-6.924376964569092</v>
+        <v>-6.618153095245361</v>
       </c>
       <c r="BW2">
-        <v>2.175502061843872</v>
+        <v>2.201903820037842</v>
       </c>
       <c r="BX2">
-        <v>-5.503909111022949</v>
+        <v>-5.326971054077148</v>
       </c>
       <c r="BY2">
-        <v>0.6088507175445557</v>
+        <v>0.6246282458305359</v>
       </c>
       <c r="BZ2">
-        <v>-2.314019918441772</v>
+        <v>-2.116864442825317</v>
       </c>
       <c r="CA2">
-        <v>-10.09114265441895</v>
+        <v>-10.28238105773926</v>
       </c>
       <c r="CB2">
-        <v>-2.018695831298828</v>
+        <v>-2.003995656967163</v>
       </c>
       <c r="CC2">
-        <v>3.043349266052246</v>
+        <v>2.878593444824219</v>
       </c>
       <c r="CD2">
-        <v>-1.410405278205872</v>
+        <v>-1.262055516242981</v>
       </c>
       <c r="CE2">
-        <v>-1.150368571281433</v>
+        <v>-1.116009473800659</v>
       </c>
       <c r="CF2">
-        <v>-0.2949599027633667</v>
+        <v>0.111077569425106</v>
       </c>
       <c r="CG2">
-        <v>1.229947090148926</v>
+        <v>1.248597145080566</v>
       </c>
       <c r="CH2">
-        <v>-16.61343574523926</v>
+        <v>-17.32375907897949</v>
       </c>
       <c r="CI2">
-        <v>0.2115687131881714</v>
+        <v>0.195798471570015</v>
       </c>
       <c r="CJ2">
-        <v>-13.90528297424316</v>
+        <v>-13.76784515380859</v>
       </c>
       <c r="CK2">
-        <v>-1.274624705314636</v>
+        <v>-1.019385695457458</v>
       </c>
       <c r="CL2">
-        <v>-1.178832530975342</v>
+        <v>-1.32477867603302</v>
       </c>
       <c r="CM2">
-        <v>-10.34638690948486</v>
+        <v>-10.24833965301514</v>
       </c>
       <c r="CN2">
-        <v>-1.493061542510986</v>
+        <v>-1.293119311332703</v>
       </c>
       <c r="CO2">
-        <v>-2.499979734420776</v>
+        <v>-2.623959302902222</v>
       </c>
       <c r="CP2">
-        <v>7.502964019775391</v>
+        <v>7.242214202880859</v>
       </c>
       <c r="CQ2">
-        <v>4.818028450012207</v>
+        <v>5.025534629821777</v>
       </c>
       <c r="CR2">
-        <v>3.834099769592285</v>
+        <v>3.65654730796814</v>
       </c>
       <c r="CS2">
-        <v>1.571052193641663</v>
+        <v>1.616863608360291</v>
       </c>
       <c r="CT2">
-        <v>-1.679568648338318</v>
+        <v>-1.820725321769714</v>
       </c>
       <c r="CU2">
-        <v>0.589979350566864</v>
+        <v>0.4782630503177643</v>
       </c>
       <c r="CV2">
-        <v>-2.09393310546875</v>
+        <v>-2.122418403625488</v>
       </c>
       <c r="CW2">
-        <v>-4.000923633575439</v>
+        <v>-4.03291654586792</v>
       </c>
       <c r="CX2">
-        <v>0.2617683410644531</v>
+        <v>0.2079510986804962</v>
       </c>
       <c r="CY2">
-        <v>-6.938669204711914</v>
+        <v>-7.185537815093994</v>
       </c>
       <c r="CZ2">
-        <v>-3.203809261322021</v>
+        <v>-3.239029884338379</v>
       </c>
       <c r="DA2">
-        <v>-4.298296451568604</v>
+        <v>-4.280272483825684</v>
       </c>
       <c r="DB2">
-        <v>-9.578595161437988</v>
+        <v>-9.26765251159668</v>
       </c>
       <c r="DC2">
-        <v>0.8769383430480957</v>
+        <v>1.064012050628662</v>
       </c>
       <c r="DD2">
-        <v>-15.05469131469727</v>
+        <v>-14.90534400939941</v>
       </c>
       <c r="DE2">
-        <v>-2.200361728668213</v>
+        <v>-2.070218086242676</v>
       </c>
       <c r="DF2">
-        <v>-1.509640574455261</v>
+        <v>-1.695571780204773</v>
       </c>
       <c r="DG2">
-        <v>0.469365656375885</v>
+        <v>0.7383438944816589</v>
       </c>
       <c r="DH2">
-        <v>-9.626873016357422</v>
+        <v>-9.46677303314209</v>
       </c>
       <c r="DI2">
-        <v>-1.901587247848511</v>
+        <v>-1.781257510185242</v>
       </c>
       <c r="DJ2">
-        <v>11.89783763885498</v>
+        <v>11.75450420379639</v>
       </c>
       <c r="DK2">
-        <v>2.634515523910522</v>
+        <v>2.939796447753906</v>
       </c>
       <c r="DL2">
-        <v>-17.47604751586914</v>
+        <v>-17.21502113342285</v>
       </c>
       <c r="DM2">
-        <v>-2.884955167770386</v>
+        <v>-2.542425632476807</v>
       </c>
       <c r="DN2">
-        <v>0.1091052442789078</v>
+        <v>0.09813967347145081</v>
       </c>
       <c r="DO2">
-        <v>-3.785977602005005</v>
+        <v>-3.86522650718689</v>
       </c>
       <c r="DP2">
-        <v>15.85601425170898</v>
+        <v>15.65035343170166</v>
       </c>
       <c r="DQ2">
-        <v>1.887867331504822</v>
+        <v>1.874379277229309</v>
       </c>
       <c r="DR2">
-        <v>-0.5230355858802795</v>
+        <v>-0.3917462229728699</v>
       </c>
       <c r="DS2">
-        <v>-1.229710578918457</v>
+        <v>-1.222677826881409</v>
       </c>
       <c r="DT2">
-        <v>4.626918315887451</v>
+        <v>4.607997894287109</v>
       </c>
       <c r="DU2">
-        <v>-9.307900428771973</v>
+        <v>-9.047286987304688</v>
       </c>
       <c r="DV2">
-        <v>3.040374517440796</v>
+        <v>3.212689876556396</v>
       </c>
       <c r="DW2">
-        <v>1.712109088897705</v>
+        <v>1.203500986099243</v>
       </c>
       <c r="DX2">
-        <v>-0.8884037137031555</v>
+        <v>-0.9066248536109924</v>
       </c>
       <c r="DY2">
-        <v>-3.735433340072632</v>
+        <v>-3.633146524429321</v>
       </c>
       <c r="DZ2">
-        <v>-2.800158739089966</v>
+        <v>-2.660102128982544</v>
       </c>
       <c r="EA2">
-        <v>14.05590629577637</v>
+        <v>14.38167953491211</v>
       </c>
       <c r="EB2">
-        <v>0.6445956230163574</v>
+        <v>0.6617967486381531</v>
       </c>
       <c r="EC2">
-        <v>-0.8266176581382751</v>
+        <v>-0.9324396252632141</v>
       </c>
       <c r="ED2">
-        <v>-5.826600074768066</v>
+        <v>-5.575963497161865</v>
       </c>
       <c r="EE2">
-        <v>-2.670063018798828</v>
+        <v>-2.543716907501221</v>
       </c>
       <c r="EF2">
-        <v>-0.6324613094329834</v>
+        <v>-0.596592128276825</v>
       </c>
       <c r="EG2">
-        <v>1.131986737251282</v>
+        <v>1.008891940116882</v>
       </c>
       <c r="EH2">
-        <v>-10.27736282348633</v>
+        <v>-10.01494693756104</v>
       </c>
       <c r="EI2">
-        <v>1.688185930252075</v>
+        <v>1.870054602622986</v>
       </c>
       <c r="EJ2">
-        <v>13.93494701385498</v>
+        <v>13.68814563751221</v>
       </c>
       <c r="EK2">
-        <v>3.969501972198486</v>
+        <v>3.746482133865356</v>
       </c>
       <c r="EL2">
-        <v>0.1652452945709229</v>
+        <v>0.1064683124423027</v>
       </c>
       <c r="EM2">
-        <v>7.157652854919434</v>
+        <v>7.067019462585449</v>
       </c>
       <c r="EN2">
-        <v>9.039307594299316</v>
+        <v>9.246345520019531</v>
       </c>
       <c r="EO2">
-        <v>6.727365493774414</v>
+        <v>6.760978698730469</v>
       </c>
       <c r="EP2">
-        <v>-8.931743621826172</v>
+        <v>-8.954315185546875</v>
       </c>
       <c r="EQ2">
-        <v>16.1456356048584</v>
+        <v>16.16802406311035</v>
       </c>
       <c r="ER2">
-        <v>-0.4907858967781067</v>
+        <v>-0.6150929927825928</v>
       </c>
       <c r="ES2">
-        <v>-21.64229011535645</v>
+        <v>-20.87725448608398</v>
       </c>
       <c r="ET2">
-        <v>-1.557534575462341</v>
+        <v>-1.438910007476807</v>
       </c>
       <c r="EU2">
-        <v>2.111170291900635</v>
+        <v>2.204866647720337</v>
       </c>
       <c r="EV2">
-        <v>1.108795881271362</v>
+        <v>1.387082457542419</v>
       </c>
       <c r="EW2">
-        <v>-2.951727867126465</v>
+        <v>-2.895973443984985</v>
       </c>
       <c r="EX2">
-        <v>-18.60907173156738</v>
+        <v>-18.47934722900391</v>
       </c>
       <c r="EY2">
-        <v>2.395742654800415</v>
+        <v>2.658647775650024</v>
       </c>
       <c r="EZ2">
-        <v>2.031633853912354</v>
+        <v>2.019792079925537</v>
       </c>
       <c r="FA2">
-        <v>-1.020886301994324</v>
+        <v>-0.8169582486152649</v>
       </c>
       <c r="FB2">
-        <v>0.4525597989559174</v>
+        <v>0.5990195274353027</v>
       </c>
       <c r="FC2">
-        <v>5.835752964019775</v>
+        <v>5.939462184906006</v>
       </c>
       <c r="FD2">
-        <v>-1.082315921783447</v>
+        <v>-1.030920147895813</v>
       </c>
       <c r="FE2">
-        <v>-14.03885936737061</v>
+        <v>-14.0476188659668</v>
       </c>
       <c r="FF2">
-        <v>-0.04308998957276344</v>
+        <v>0.02285081893205643</v>
       </c>
       <c r="FG2">
-        <v>-15.52275371551514</v>
+        <v>-16.16662216186523</v>
       </c>
       <c r="FH2">
-        <v>0.7647238373756409</v>
+        <v>0.6404303908348083</v>
       </c>
       <c r="FI2">
-        <v>-17.18095588684082</v>
+        <v>-17.62923049926758</v>
       </c>
       <c r="FJ2">
-        <v>-2.161709308624268</v>
+        <v>-2.241539478302002</v>
       </c>
       <c r="FK2">
-        <v>10.55303001403809</v>
+        <v>10.17179107666016</v>
       </c>
       <c r="FL2">
-        <v>-9.587145805358887</v>
+        <v>-9.870368957519531</v>
       </c>
       <c r="FM2">
-        <v>4.116047382354736</v>
+        <v>4.005710601806641</v>
       </c>
       <c r="FN2">
-        <v>5.526006698608398</v>
+        <v>5.407132148742676</v>
       </c>
       <c r="FO2">
-        <v>0.7488705515861511</v>
+        <v>0.9431741237640381</v>
       </c>
       <c r="FP2">
-        <v>-2.039190530776978</v>
+        <v>-2.087632417678833</v>
       </c>
       <c r="FQ2">
-        <v>0.4661880433559418</v>
+        <v>0.3702491819858551</v>
       </c>
       <c r="FR2">
-        <v>3.805588722229004</v>
+        <v>3.939857244491577</v>
       </c>
       <c r="FS2">
-        <v>-0.2053079307079315</v>
+        <v>-0.3617632389068604</v>
       </c>
       <c r="FT2">
-        <v>-1.202964186668396</v>
+        <v>-1.349275708198547</v>
       </c>
       <c r="FU2">
-        <v>-5.515493869781494</v>
+        <v>-5.160552978515625</v>
       </c>
       <c r="FV2">
-        <v>0.1483234614133835</v>
+        <v>0.3464882373809814</v>
       </c>
       <c r="FW2">
-        <v>0.9640578031539917</v>
+        <v>1.248807549476624</v>
       </c>
       <c r="FX2">
-        <v>3.257350921630859</v>
+        <v>3.554303884506226</v>
       </c>
       <c r="FY2">
-        <v>1.387901782989502</v>
+        <v>1.315134644508362</v>
       </c>
       <c r="FZ2">
-        <v>-0.9715380072593689</v>
+        <v>-0.7781013250350952</v>
       </c>
       <c r="GA2">
-        <v>-2.582316398620605</v>
+        <v>-2.524305820465088</v>
       </c>
       <c r="GB2">
-        <v>1.968883037567139</v>
+        <v>1.844035983085632</v>
       </c>
       <c r="GC2">
-        <v>-3.360345363616943</v>
+        <v>-3.344592332839966</v>
       </c>
       <c r="GD2">
-        <v>1.248937010765076</v>
+        <v>1.405067801475525</v>
       </c>
       <c r="GE2">
-        <v>-1.724252820014954</v>
+        <v>-1.771259188652039</v>
       </c>
       <c r="GF2">
-        <v>1.029799580574036</v>
+        <v>1.327078223228455</v>
       </c>
       <c r="GG2">
-        <v>0.3341731429100037</v>
+        <v>0.3976929187774658</v>
       </c>
       <c r="GH2">
-        <v>3.607200622558594</v>
+        <v>3.561336517333984</v>
       </c>
       <c r="GI2">
-        <v>-2.37018895149231</v>
+        <v>-2.018994808197021</v>
       </c>
       <c r="GJ2">
-        <v>1.380095362663269</v>
+        <v>0.8914233446121216</v>
       </c>
       <c r="GK2">
-        <v>-9.783917427062988</v>
+        <v>-10.21102905273438</v>
       </c>
       <c r="GL2">
-        <v>-13.56179618835449</v>
+        <v>-13.481858253479</v>
       </c>
       <c r="GM2">
-        <v>7.372698307037354</v>
+        <v>7.150115489959717</v>
       </c>
       <c r="GN2">
-        <v>-4.870887279510498</v>
+        <v>-4.848196983337402</v>
       </c>
       <c r="GO2">
-        <v>11.97440433502197</v>
+        <v>12.02193355560303</v>
       </c>
       <c r="GP2">
-        <v>-0.5355536937713623</v>
+        <v>-0.5670021176338196</v>
       </c>
       <c r="GQ2">
-        <v>-1.135886192321777</v>
+        <v>-1.115224003791809</v>
       </c>
       <c r="GR2">
-        <v>0.4560765624046326</v>
+        <v>0.8617048859596252</v>
       </c>
       <c r="GS2">
-        <v>-4.336967945098877</v>
+        <v>-4.546113014221191</v>
       </c>
       <c r="GT2">
-        <v>0.03203872591257095</v>
+        <v>0.1975540965795517</v>
       </c>
       <c r="GU2">
-        <v>-2.028913736343384</v>
+        <v>-2.272128105163574</v>
       </c>
       <c r="GV2">
-        <v>1.906770825386047</v>
+        <v>2.224687814712524</v>
       </c>
       <c r="GW2">
-        <v>-9.65704345703125</v>
+        <v>-9.362882614135742</v>
       </c>
       <c r="GX2">
-        <v>0.1083121448755264</v>
+        <v>0.007875550538301468</v>
       </c>
       <c r="GY2">
-        <v>-1.041611194610596</v>
+        <v>-1.043455481529236</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Service Sector.xlsx
+++ b/static/Models/Classification/Equation/Service Sector.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-22</t>
+    <t>2024-02-26</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>8.382267951965332</v>
+        <v>8.394584655761719</v>
       </c>
       <c r="C2">
-        <v>-1.073948860168457</v>
+        <v>-0.4675307273864746</v>
       </c>
       <c r="D2">
-        <v>14.44484233856201</v>
+        <v>14.95756912231445</v>
       </c>
       <c r="E2">
-        <v>7.895381927490234</v>
+        <v>8.658058166503906</v>
       </c>
       <c r="F2">
-        <v>1.305130243301392</v>
+        <v>1.491657376289368</v>
       </c>
       <c r="G2">
-        <v>-2.321409463882446</v>
+        <v>-3.161990165710449</v>
       </c>
       <c r="H2">
-        <v>3.07529616355896</v>
+        <v>2.702295541763306</v>
       </c>
       <c r="I2">
-        <v>-3.446549892425537</v>
+        <v>-2.886646747589111</v>
       </c>
       <c r="J2">
-        <v>-3.192075252532959</v>
+        <v>-4.128900051116943</v>
       </c>
       <c r="K2">
-        <v>1.587316870689392</v>
+        <v>0.574725329875946</v>
       </c>
       <c r="L2">
-        <v>-1.852818369865417</v>
+        <v>-2.510475873947144</v>
       </c>
       <c r="M2">
-        <v>0.5436960458755493</v>
+        <v>1.463519811630249</v>
       </c>
       <c r="N2">
-        <v>-4.240370750427246</v>
+        <v>-4.815040588378906</v>
       </c>
       <c r="O2">
-        <v>5.646761894226074</v>
+        <v>6.46155309677124</v>
       </c>
       <c r="P2">
-        <v>-1.129886388778687</v>
+        <v>-1.42845344543457</v>
       </c>
       <c r="Q2">
-        <v>10.81455516815186</v>
+        <v>11.45690250396729</v>
       </c>
       <c r="R2">
-        <v>-1.620549917221069</v>
+        <v>-2.230203628540039</v>
       </c>
       <c r="S2">
-        <v>-14.56156349182129</v>
+        <v>-13.55065822601318</v>
       </c>
       <c r="T2">
-        <v>-6.933321952819824</v>
+        <v>-7.629383087158203</v>
       </c>
       <c r="U2">
-        <v>-15.11412715911865</v>
+        <v>-15.32363319396973</v>
       </c>
       <c r="V2">
-        <v>1.055535078048706</v>
+        <v>1.276411414146423</v>
       </c>
       <c r="W2">
-        <v>-14.30407524108887</v>
+        <v>-13.86660480499268</v>
       </c>
       <c r="X2">
-        <v>-3.053794145584106</v>
+        <v>-2.994294881820679</v>
       </c>
       <c r="Y2">
-        <v>-7.478333473205566</v>
+        <v>-6.869536876678467</v>
       </c>
       <c r="Z2">
-        <v>2.589364290237427</v>
+        <v>2.491679906845093</v>
       </c>
       <c r="AA2">
-        <v>1.117977499961853</v>
+        <v>0.3649189472198486</v>
       </c>
       <c r="AB2">
-        <v>0.385379433631897</v>
+        <v>-0.3291207253932953</v>
       </c>
       <c r="AC2">
-        <v>-1.713799715042114</v>
+        <v>-1.430564641952515</v>
       </c>
       <c r="AD2">
-        <v>0.6250767707824707</v>
+        <v>1.055368661880493</v>
       </c>
       <c r="AE2">
-        <v>-1.555690884590149</v>
+        <v>-2.453832626342773</v>
       </c>
       <c r="AF2">
-        <v>-2.063648462295532</v>
+        <v>-0.9867247939109802</v>
       </c>
       <c r="AG2">
-        <v>-5.390985012054443</v>
+        <v>-4.565037727355957</v>
       </c>
       <c r="AH2">
-        <v>-4.041949272155762</v>
+        <v>-5.351750373840332</v>
       </c>
       <c r="AI2">
-        <v>17.69861793518066</v>
+        <v>17.86105346679688</v>
       </c>
       <c r="AJ2">
-        <v>-0.8842474222183228</v>
+        <v>-0.6709094643592834</v>
       </c>
       <c r="AK2">
-        <v>2.853964328765869</v>
+        <v>2.252025365829468</v>
       </c>
       <c r="AL2">
-        <v>2.090774536132812</v>
+        <v>1.598632097244263</v>
       </c>
       <c r="AM2">
-        <v>-9.805923461914062</v>
+        <v>-10.27255344390869</v>
       </c>
       <c r="AN2">
-        <v>0.2922392785549164</v>
+        <v>0.2172483205795288</v>
       </c>
       <c r="AO2">
-        <v>-13.06128883361816</v>
+        <v>-13.60233211517334</v>
       </c>
       <c r="AP2">
-        <v>14.53401756286621</v>
+        <v>13.79156875610352</v>
       </c>
       <c r="AQ2">
-        <v>2.065420150756836</v>
+        <v>2.483508110046387</v>
       </c>
       <c r="AR2">
-        <v>-5.083290576934814</v>
+        <v>-4.661074638366699</v>
       </c>
       <c r="AS2">
-        <v>-6.209407329559326</v>
+        <v>-6.417736053466797</v>
       </c>
       <c r="AT2">
-        <v>0.1316880732774734</v>
+        <v>-0.3989812433719635</v>
       </c>
       <c r="AU2">
-        <v>-0.9941132068634033</v>
+        <v>-0.1463794559240341</v>
       </c>
       <c r="AV2">
-        <v>-5.396770477294922</v>
+        <v>-6.044124603271484</v>
       </c>
       <c r="AW2">
-        <v>1.635812878608704</v>
+        <v>2.348787784576416</v>
       </c>
       <c r="AX2">
-        <v>-0.6813016533851624</v>
+        <v>-0.4781486690044403</v>
       </c>
       <c r="AY2">
-        <v>-9.599398612976074</v>
+        <v>-9.151421546936035</v>
       </c>
       <c r="AZ2">
-        <v>-5.861122131347656</v>
+        <v>-5.349767208099365</v>
       </c>
       <c r="BA2">
-        <v>9.400905609130859</v>
+        <v>9.56556224822998</v>
       </c>
       <c r="BB2">
-        <v>3.25508189201355</v>
+        <v>3.868486642837524</v>
       </c>
       <c r="BC2">
-        <v>-0.1947475075721741</v>
+        <v>0.9073248505592346</v>
       </c>
       <c r="BD2">
-        <v>0.9215325713157654</v>
+        <v>1.458668947219849</v>
       </c>
       <c r="BE2">
-        <v>-0.3092915117740631</v>
+        <v>-0.3531540036201477</v>
       </c>
       <c r="BF2">
-        <v>-1.611063480377197</v>
+        <v>-0.981024444103241</v>
       </c>
       <c r="BG2">
-        <v>0.52778559923172</v>
+        <v>0.9974221587181091</v>
       </c>
       <c r="BH2">
-        <v>0.1414411962032318</v>
+        <v>0.9976827502250671</v>
       </c>
       <c r="BI2">
-        <v>-5.678865909576416</v>
+        <v>-6.474603652954102</v>
       </c>
       <c r="BJ2">
-        <v>2.101900577545166</v>
+        <v>2.051787853240967</v>
       </c>
       <c r="BK2">
-        <v>0.02673621848225594</v>
+        <v>-0.6020609736442566</v>
       </c>
       <c r="BL2">
-        <v>6.468013763427734</v>
+        <v>6.326840877532959</v>
       </c>
       <c r="BM2">
-        <v>-4.915322780609131</v>
+        <v>-4.710325241088867</v>
       </c>
       <c r="BN2">
-        <v>-1.217226147651672</v>
+        <v>-0.9011048078536987</v>
       </c>
       <c r="BO2">
-        <v>0.7229073047637939</v>
+        <v>1.256308317184448</v>
       </c>
       <c r="BP2">
-        <v>-1.576987862586975</v>
+        <v>-2.323275566101074</v>
       </c>
       <c r="BQ2">
-        <v>-4.679133892059326</v>
+        <v>-4.594650268554688</v>
       </c>
       <c r="BR2">
-        <v>4.887374877929688</v>
+        <v>4.662063121795654</v>
       </c>
       <c r="BS2">
-        <v>1.521921157836914</v>
+        <v>1.168111324310303</v>
       </c>
       <c r="BT2">
-        <v>4.522826671600342</v>
+        <v>3.753366470336914</v>
       </c>
       <c r="BU2">
-        <v>1.154327750205994</v>
+        <v>1.512421488761902</v>
       </c>
       <c r="BV2">
-        <v>-6.618153095245361</v>
+        <v>-6.850699424743652</v>
       </c>
       <c r="BW2">
-        <v>2.201903820037842</v>
+        <v>2.759340763092041</v>
       </c>
       <c r="BX2">
-        <v>-5.326971054077148</v>
+        <v>-6.214657783508301</v>
       </c>
       <c r="BY2">
-        <v>0.6246282458305359</v>
+        <v>0.1440424472093582</v>
       </c>
       <c r="BZ2">
-        <v>-2.116864442825317</v>
+        <v>-2.917345762252808</v>
       </c>
       <c r="CA2">
-        <v>-10.28238105773926</v>
+        <v>-9.490432739257812</v>
       </c>
       <c r="CB2">
-        <v>-2.003995656967163</v>
+        <v>-2.517997026443481</v>
       </c>
       <c r="CC2">
-        <v>2.878593444824219</v>
+        <v>3.50654411315918</v>
       </c>
       <c r="CD2">
-        <v>-1.262055516242981</v>
+        <v>-1.970386624336243</v>
       </c>
       <c r="CE2">
-        <v>-1.116009473800659</v>
+        <v>-1.822323560714722</v>
       </c>
       <c r="CF2">
-        <v>0.111077569425106</v>
+        <v>-0.957093358039856</v>
       </c>
       <c r="CG2">
-        <v>1.248597145080566</v>
+        <v>1.51759135723114</v>
       </c>
       <c r="CH2">
-        <v>-17.32375907897949</v>
+        <v>-17.19392585754395</v>
       </c>
       <c r="CI2">
-        <v>0.195798471570015</v>
+        <v>0.5044109225273132</v>
       </c>
       <c r="CJ2">
-        <v>-13.76784515380859</v>
+        <v>-13.29763126373291</v>
       </c>
       <c r="CK2">
-        <v>-1.019385695457458</v>
+        <v>-0.6230556964874268</v>
       </c>
       <c r="CL2">
-        <v>-1.32477867603302</v>
+        <v>-1.351651668548584</v>
       </c>
       <c r="CM2">
-        <v>-10.24833965301514</v>
+        <v>-10.67782497406006</v>
       </c>
       <c r="CN2">
-        <v>-1.293119311332703</v>
+        <v>-1.487259030342102</v>
       </c>
       <c r="CO2">
-        <v>-2.623959302902222</v>
+        <v>-2.062715768814087</v>
       </c>
       <c r="CP2">
-        <v>7.242214202880859</v>
+        <v>7.486847400665283</v>
       </c>
       <c r="CQ2">
-        <v>5.025534629821777</v>
+        <v>5.466161251068115</v>
       </c>
       <c r="CR2">
-        <v>3.65654730796814</v>
+        <v>3.933763742446899</v>
       </c>
       <c r="CS2">
-        <v>1.616863608360291</v>
+        <v>1.304285168647766</v>
       </c>
       <c r="CT2">
-        <v>-1.820725321769714</v>
+        <v>-1.268451452255249</v>
       </c>
       <c r="CU2">
-        <v>0.4782630503177643</v>
+        <v>-0.01185107138007879</v>
       </c>
       <c r="CV2">
-        <v>-2.122418403625488</v>
+        <v>-2.797277450561523</v>
       </c>
       <c r="CW2">
-        <v>-4.03291654586792</v>
+        <v>-4.294594287872314</v>
       </c>
       <c r="CX2">
-        <v>0.2079510986804962</v>
+        <v>-0.4084775149822235</v>
       </c>
       <c r="CY2">
-        <v>-7.185537815093994</v>
+        <v>-6.556935787200928</v>
       </c>
       <c r="CZ2">
-        <v>-3.239029884338379</v>
+        <v>-3.881437063217163</v>
       </c>
       <c r="DA2">
-        <v>-4.280272483825684</v>
+        <v>-3.719062566757202</v>
       </c>
       <c r="DB2">
-        <v>-9.26765251159668</v>
+        <v>-9.430438995361328</v>
       </c>
       <c r="DC2">
-        <v>1.064012050628662</v>
+        <v>0.4870157539844513</v>
       </c>
       <c r="DD2">
-        <v>-14.90534400939941</v>
+        <v>-15.77772617340088</v>
       </c>
       <c r="DE2">
-        <v>-2.070218086242676</v>
+        <v>-2.635626316070557</v>
       </c>
       <c r="DF2">
-        <v>-1.695571780204773</v>
+        <v>-1.852198958396912</v>
       </c>
       <c r="DG2">
-        <v>0.7383438944816589</v>
+        <v>1.091403961181641</v>
       </c>
       <c r="DH2">
-        <v>-9.46677303314209</v>
+        <v>-9.464531898498535</v>
       </c>
       <c r="DI2">
-        <v>-1.781257510185242</v>
+        <v>-1.264345049858093</v>
       </c>
       <c r="DJ2">
-        <v>11.75450420379639</v>
+        <v>12.4879322052002</v>
       </c>
       <c r="DK2">
-        <v>2.939796447753906</v>
+        <v>2.951095342636108</v>
       </c>
       <c r="DL2">
-        <v>-17.21502113342285</v>
+        <v>-17.31032180786133</v>
       </c>
       <c r="DM2">
-        <v>-2.542425632476807</v>
+        <v>-2.264706134796143</v>
       </c>
       <c r="DN2">
-        <v>0.09813967347145081</v>
+        <v>0.6552086472511292</v>
       </c>
       <c r="DO2">
-        <v>-3.86522650718689</v>
+        <v>-4.136329174041748</v>
       </c>
       <c r="DP2">
-        <v>15.65035343170166</v>
+        <v>15.72395133972168</v>
       </c>
       <c r="DQ2">
-        <v>1.874379277229309</v>
+        <v>1.391266822814941</v>
       </c>
       <c r="DR2">
-        <v>-0.3917462229728699</v>
+        <v>-0.3388446867465973</v>
       </c>
       <c r="DS2">
-        <v>-1.222677826881409</v>
+        <v>-0.8313744068145752</v>
       </c>
       <c r="DT2">
-        <v>4.607997894287109</v>
+        <v>4.724567413330078</v>
       </c>
       <c r="DU2">
-        <v>-9.047286987304688</v>
+        <v>-9.60771369934082</v>
       </c>
       <c r="DV2">
-        <v>3.212689876556396</v>
+        <v>2.729659557342529</v>
       </c>
       <c r="DW2">
-        <v>1.203500986099243</v>
+        <v>1.784160614013672</v>
       </c>
       <c r="DX2">
-        <v>-0.9066248536109924</v>
+        <v>-0.369561642408371</v>
       </c>
       <c r="DY2">
-        <v>-3.633146524429321</v>
+        <v>-3.162889719009399</v>
       </c>
       <c r="DZ2">
-        <v>-2.660102128982544</v>
+        <v>-2.252743482589722</v>
       </c>
       <c r="EA2">
-        <v>14.38167953491211</v>
+        <v>14.34267616271973</v>
       </c>
       <c r="EB2">
-        <v>0.6617967486381531</v>
+        <v>1.161404728889465</v>
       </c>
       <c r="EC2">
-        <v>-0.9324396252632141</v>
+        <v>-0.7062962055206299</v>
       </c>
       <c r="ED2">
-        <v>-5.575963497161865</v>
+        <v>-6.293674945831299</v>
       </c>
       <c r="EE2">
-        <v>-2.543716907501221</v>
+        <v>-2.449270009994507</v>
       </c>
       <c r="EF2">
-        <v>-0.596592128276825</v>
+        <v>-0.738609254360199</v>
       </c>
       <c r="EG2">
-        <v>1.008891940116882</v>
+        <v>0.6281866431236267</v>
       </c>
       <c r="EH2">
-        <v>-10.01494693756104</v>
+        <v>-10.94660091400146</v>
       </c>
       <c r="EI2">
-        <v>1.870054602622986</v>
+        <v>1.139504909515381</v>
       </c>
       <c r="EJ2">
-        <v>13.68814563751221</v>
+        <v>13.53898811340332</v>
       </c>
       <c r="EK2">
-        <v>3.746482133865356</v>
+        <v>3.576072931289673</v>
       </c>
       <c r="EL2">
-        <v>0.1064683124423027</v>
+        <v>0.6491786241531372</v>
       </c>
       <c r="EM2">
-        <v>7.067019462585449</v>
+        <v>7.753445148468018</v>
       </c>
       <c r="EN2">
-        <v>9.246345520019531</v>
+        <v>8.490130424499512</v>
       </c>
       <c r="EO2">
-        <v>6.760978698730469</v>
+        <v>6.933825492858887</v>
       </c>
       <c r="EP2">
-        <v>-8.954315185546875</v>
+        <v>-9.154116630554199</v>
       </c>
       <c r="EQ2">
-        <v>16.16802406311035</v>
+        <v>16.3503303527832</v>
       </c>
       <c r="ER2">
-        <v>-0.6150929927825928</v>
+        <v>0.05192958191037178</v>
       </c>
       <c r="ES2">
-        <v>-20.87725448608398</v>
+        <v>-22.3312816619873</v>
       </c>
       <c r="ET2">
-        <v>-1.438910007476807</v>
+        <v>-1.830398201942444</v>
       </c>
       <c r="EU2">
-        <v>2.204866647720337</v>
+        <v>1.99563193321228</v>
       </c>
       <c r="EV2">
-        <v>1.387082457542419</v>
+        <v>1.615407943725586</v>
       </c>
       <c r="EW2">
-        <v>-2.895973443984985</v>
+        <v>-2.252474308013916</v>
       </c>
       <c r="EX2">
-        <v>-18.47934722900391</v>
+        <v>-18.02818489074707</v>
       </c>
       <c r="EY2">
-        <v>2.658647775650024</v>
+        <v>2.990577936172485</v>
       </c>
       <c r="EZ2">
-        <v>2.019792079925537</v>
+        <v>2.6649329662323</v>
       </c>
       <c r="FA2">
-        <v>-0.8169582486152649</v>
+        <v>-1.380258560180664</v>
       </c>
       <c r="FB2">
-        <v>0.5990195274353027</v>
+        <v>-0.1071230322122574</v>
       </c>
       <c r="FC2">
-        <v>5.939462184906006</v>
+        <v>5.701352596282959</v>
       </c>
       <c r="FD2">
-        <v>-1.030920147895813</v>
+        <v>-1.775347113609314</v>
       </c>
       <c r="FE2">
-        <v>-14.0476188659668</v>
+        <v>-13.54864120483398</v>
       </c>
       <c r="FF2">
-        <v>0.02285081893205643</v>
+        <v>-0.3890957236289978</v>
       </c>
       <c r="FG2">
-        <v>-16.16662216186523</v>
+        <v>-16.11676025390625</v>
       </c>
       <c r="FH2">
-        <v>0.6404303908348083</v>
+        <v>1.23734712600708</v>
       </c>
       <c r="FI2">
-        <v>-17.62923049926758</v>
+        <v>-16.87233734130859</v>
       </c>
       <c r="FJ2">
-        <v>-2.241539478302002</v>
+        <v>-2.823347091674805</v>
       </c>
       <c r="FK2">
-        <v>10.17179107666016</v>
+        <v>11.05926322937012</v>
       </c>
       <c r="FL2">
-        <v>-9.870368957519531</v>
+        <v>-8.982930183410645</v>
       </c>
       <c r="FM2">
-        <v>4.005710601806641</v>
+        <v>4.705577373504639</v>
       </c>
       <c r="FN2">
-        <v>5.407132148742676</v>
+        <v>5.322385787963867</v>
       </c>
       <c r="FO2">
-        <v>0.9431741237640381</v>
+        <v>1.359022736549377</v>
       </c>
       <c r="FP2">
-        <v>-2.087632417678833</v>
+        <v>-2.285557270050049</v>
       </c>
       <c r="FQ2">
-        <v>0.3702491819858551</v>
+        <v>0.87444007396698</v>
       </c>
       <c r="FR2">
-        <v>3.939857244491577</v>
+        <v>3.425526142120361</v>
       </c>
       <c r="FS2">
-        <v>-0.3617632389068604</v>
+        <v>0.1796245127916336</v>
       </c>
       <c r="FT2">
-        <v>-1.349275708198547</v>
+        <v>-0.7438700795173645</v>
       </c>
       <c r="FU2">
-        <v>-5.160552978515625</v>
+        <v>-6.129918575286865</v>
       </c>
       <c r="FV2">
-        <v>0.3464882373809814</v>
+        <v>0.7763515114784241</v>
       </c>
       <c r="FW2">
-        <v>1.248807549476624</v>
+        <v>0.368241548538208</v>
       </c>
       <c r="FX2">
-        <v>3.554303884506226</v>
+        <v>3.359091758728027</v>
       </c>
       <c r="FY2">
-        <v>1.315134644508362</v>
+        <v>1.770510315895081</v>
       </c>
       <c r="FZ2">
-        <v>-0.7781013250350952</v>
+        <v>-0.5134598612785339</v>
       </c>
       <c r="GA2">
-        <v>-2.524305820465088</v>
+        <v>-1.915726780891418</v>
       </c>
       <c r="GB2">
-        <v>1.844035983085632</v>
+        <v>2.48840594291687</v>
       </c>
       <c r="GC2">
-        <v>-3.344592332839966</v>
+        <v>-3.381657123565674</v>
       </c>
       <c r="GD2">
-        <v>1.405067801475525</v>
+        <v>1.184894204139709</v>
       </c>
       <c r="GE2">
-        <v>-1.771259188652039</v>
+        <v>-1.20355212688446</v>
       </c>
       <c r="GF2">
-        <v>1.327078223228455</v>
+        <v>0.3743705153465271</v>
       </c>
       <c r="GG2">
-        <v>0.3976929187774658</v>
+        <v>-0.3359212577342987</v>
       </c>
       <c r="GH2">
-        <v>3.561336517333984</v>
+        <v>3.22219181060791</v>
       </c>
       <c r="GI2">
-        <v>-2.018994808197021</v>
+        <v>-3.095723628997803</v>
       </c>
       <c r="GJ2">
-        <v>0.8914233446121216</v>
+        <v>0.8307053446769714</v>
       </c>
       <c r="GK2">
-        <v>-10.21102905273438</v>
+        <v>-9.524495124816895</v>
       </c>
       <c r="GL2">
-        <v>-13.481858253479</v>
+        <v>-13.57116794586182</v>
       </c>
       <c r="GM2">
-        <v>7.150115489959717</v>
+        <v>7.066162586212158</v>
       </c>
       <c r="GN2">
-        <v>-4.848196983337402</v>
+        <v>-5.411865711212158</v>
       </c>
       <c r="GO2">
-        <v>12.02193355560303</v>
+        <v>11.83040332794189</v>
       </c>
       <c r="GP2">
-        <v>-0.5670021176338196</v>
+        <v>-0.02458706870675087</v>
       </c>
       <c r="GQ2">
-        <v>-1.115224003791809</v>
+        <v>-1.010969519615173</v>
       </c>
       <c r="GR2">
-        <v>0.8617048859596252</v>
+        <v>-0.1018159165978432</v>
       </c>
       <c r="GS2">
-        <v>-4.546113014221191</v>
+        <v>-4.056676864624023</v>
       </c>
       <c r="GT2">
-        <v>0.1975540965795517</v>
+        <v>-0.2594371140003204</v>
       </c>
       <c r="GU2">
-        <v>-2.272128105163574</v>
+        <v>-1.683663129806519</v>
       </c>
       <c r="GV2">
-        <v>2.224687814712524</v>
+        <v>1.31104564666748</v>
       </c>
       <c r="GW2">
-        <v>-9.362882614135742</v>
+        <v>-10.3880672454834</v>
       </c>
       <c r="GX2">
-        <v>0.007875550538301468</v>
+        <v>0.5275740623474121</v>
       </c>
       <c r="GY2">
-        <v>-1.043455481529236</v>
+        <v>-0.4880272448062897</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Service Sector.xlsx
+++ b/static/Models/Classification/Equation/Service Sector.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-26</t>
+    <t>2024-02-27</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>8.394584655761719</v>
+        <v>9.159773826599121</v>
       </c>
       <c r="C2">
-        <v>-0.4675307273864746</v>
+        <v>-1.052756905555725</v>
       </c>
       <c r="D2">
-        <v>14.95756912231445</v>
+        <v>14.12152481079102</v>
       </c>
       <c r="E2">
-        <v>8.658058166503906</v>
+        <v>7.809808254241943</v>
       </c>
       <c r="F2">
-        <v>1.491657376289368</v>
+        <v>1.219267010688782</v>
       </c>
       <c r="G2">
-        <v>-3.161990165710449</v>
+        <v>-2.323569297790527</v>
       </c>
       <c r="H2">
-        <v>2.702295541763306</v>
+        <v>2.126636266708374</v>
       </c>
       <c r="I2">
-        <v>-2.886646747589111</v>
+        <v>-3.398065805435181</v>
       </c>
       <c r="J2">
-        <v>-4.128900051116943</v>
+        <v>-4.502060413360596</v>
       </c>
       <c r="K2">
-        <v>0.574725329875946</v>
+        <v>-0.02089102938771248</v>
       </c>
       <c r="L2">
-        <v>-2.510475873947144</v>
+        <v>-1.600872397422791</v>
       </c>
       <c r="M2">
-        <v>1.463519811630249</v>
+        <v>0.9015645980834961</v>
       </c>
       <c r="N2">
-        <v>-4.815040588378906</v>
+        <v>-4.30381965637207</v>
       </c>
       <c r="O2">
-        <v>6.46155309677124</v>
+        <v>6.101225852966309</v>
       </c>
       <c r="P2">
-        <v>-1.42845344543457</v>
+        <v>-2.1778564453125</v>
       </c>
       <c r="Q2">
-        <v>11.45690250396729</v>
+        <v>11.17125225067139</v>
       </c>
       <c r="R2">
-        <v>-2.230203628540039</v>
+        <v>-2.065005779266357</v>
       </c>
       <c r="S2">
-        <v>-13.55065822601318</v>
+        <v>-14.40722370147705</v>
       </c>
       <c r="T2">
-        <v>-7.629383087158203</v>
+        <v>-8.34947395324707</v>
       </c>
       <c r="U2">
-        <v>-15.32363319396973</v>
+        <v>-15.04211235046387</v>
       </c>
       <c r="V2">
-        <v>1.276411414146423</v>
+        <v>0.7268778681755066</v>
       </c>
       <c r="W2">
-        <v>-13.86660480499268</v>
+        <v>-13.14283180236816</v>
       </c>
       <c r="X2">
-        <v>-2.994294881820679</v>
+        <v>-2.322103500366211</v>
       </c>
       <c r="Y2">
-        <v>-6.869536876678467</v>
+        <v>-7.154991149902344</v>
       </c>
       <c r="Z2">
-        <v>2.491679906845093</v>
+        <v>1.747822523117065</v>
       </c>
       <c r="AA2">
-        <v>0.3649189472198486</v>
+        <v>0.5048415064811707</v>
       </c>
       <c r="AB2">
-        <v>-0.3291207253932953</v>
+        <v>-1.086104154586792</v>
       </c>
       <c r="AC2">
-        <v>-1.430564641952515</v>
+        <v>-1.760719895362854</v>
       </c>
       <c r="AD2">
-        <v>1.055368661880493</v>
+        <v>0.4563756585121155</v>
       </c>
       <c r="AE2">
-        <v>-2.453832626342773</v>
+        <v>-2.390406608581543</v>
       </c>
       <c r="AF2">
-        <v>-0.9867247939109802</v>
+        <v>-1.645921349525452</v>
       </c>
       <c r="AG2">
-        <v>-4.565037727355957</v>
+        <v>-5.386487007141113</v>
       </c>
       <c r="AH2">
-        <v>-5.351750373840332</v>
+        <v>-4.482946395874023</v>
       </c>
       <c r="AI2">
-        <v>17.86105346679688</v>
+        <v>17.60347175598145</v>
       </c>
       <c r="AJ2">
-        <v>-0.6709094643592834</v>
+        <v>-1.21872878074646</v>
       </c>
       <c r="AK2">
-        <v>2.252025365829468</v>
+        <v>2.30499529838562</v>
       </c>
       <c r="AL2">
-        <v>1.598632097244263</v>
+        <v>1.180477380752563</v>
       </c>
       <c r="AM2">
-        <v>-10.27255344390869</v>
+        <v>-11.0025749206543</v>
       </c>
       <c r="AN2">
-        <v>0.2172483205795288</v>
+        <v>0.03114185482263565</v>
       </c>
       <c r="AO2">
-        <v>-13.60233211517334</v>
+        <v>-13.71735954284668</v>
       </c>
       <c r="AP2">
-        <v>13.79156875610352</v>
+        <v>13.47479343414307</v>
       </c>
       <c r="AQ2">
-        <v>2.483508110046387</v>
+        <v>1.931660652160645</v>
       </c>
       <c r="AR2">
-        <v>-4.661074638366699</v>
+        <v>-4.30424690246582</v>
       </c>
       <c r="AS2">
-        <v>-6.417736053466797</v>
+        <v>-6.390651702880859</v>
       </c>
       <c r="AT2">
-        <v>-0.3989812433719635</v>
+        <v>0.349018782377243</v>
       </c>
       <c r="AU2">
-        <v>-0.1463794559240341</v>
+        <v>0.3504767119884491</v>
       </c>
       <c r="AV2">
-        <v>-6.044124603271484</v>
+        <v>-6.259423732757568</v>
       </c>
       <c r="AW2">
-        <v>2.348787784576416</v>
+        <v>3.109849691390991</v>
       </c>
       <c r="AX2">
-        <v>-0.4781486690044403</v>
+        <v>0.08503769338130951</v>
       </c>
       <c r="AY2">
-        <v>-9.151421546936035</v>
+        <v>-9.87745475769043</v>
       </c>
       <c r="AZ2">
-        <v>-5.349767208099365</v>
+        <v>-5.400087833404541</v>
       </c>
       <c r="BA2">
-        <v>9.56556224822998</v>
+        <v>8.956256866455078</v>
       </c>
       <c r="BB2">
-        <v>3.868486642837524</v>
+        <v>4.099399089813232</v>
       </c>
       <c r="BC2">
-        <v>0.9073248505592346</v>
+        <v>0.181714341044426</v>
       </c>
       <c r="BD2">
-        <v>1.458668947219849</v>
+        <v>0.8759201169013977</v>
       </c>
       <c r="BE2">
-        <v>-0.3531540036201477</v>
+        <v>0.5056483149528503</v>
       </c>
       <c r="BF2">
-        <v>-0.981024444103241</v>
+        <v>-0.8443009257316589</v>
       </c>
       <c r="BG2">
-        <v>0.9974221587181091</v>
+        <v>0.4294770061969757</v>
       </c>
       <c r="BH2">
-        <v>0.9976827502250671</v>
+        <v>0.9739984273910522</v>
       </c>
       <c r="BI2">
-        <v>-6.474603652954102</v>
+        <v>-7.233730316162109</v>
       </c>
       <c r="BJ2">
-        <v>2.051787853240967</v>
+        <v>2.969901084899902</v>
       </c>
       <c r="BK2">
-        <v>-0.6020609736442566</v>
+        <v>-0.4242515563964844</v>
       </c>
       <c r="BL2">
-        <v>6.326840877532959</v>
+        <v>7.141332149505615</v>
       </c>
       <c r="BM2">
-        <v>-4.710325241088867</v>
+        <v>-5.531639575958252</v>
       </c>
       <c r="BN2">
-        <v>-0.9011048078536987</v>
+        <v>-0.5194433927536011</v>
       </c>
       <c r="BO2">
-        <v>1.256308317184448</v>
+        <v>2.012839555740356</v>
       </c>
       <c r="BP2">
-        <v>-2.323275566101074</v>
+        <v>-1.843294382095337</v>
       </c>
       <c r="BQ2">
-        <v>-4.594650268554688</v>
+        <v>-4.073904037475586</v>
       </c>
       <c r="BR2">
-        <v>4.662063121795654</v>
+        <v>4.286314964294434</v>
       </c>
       <c r="BS2">
-        <v>1.168111324310303</v>
+        <v>1.013085961341858</v>
       </c>
       <c r="BT2">
-        <v>3.753366470336914</v>
+        <v>3.676559209823608</v>
       </c>
       <c r="BU2">
-        <v>1.512421488761902</v>
+        <v>0.9022163152694702</v>
       </c>
       <c r="BV2">
-        <v>-6.850699424743652</v>
+        <v>-5.96591854095459</v>
       </c>
       <c r="BW2">
-        <v>2.759340763092041</v>
+        <v>1.86898136138916</v>
       </c>
       <c r="BX2">
-        <v>-6.214657783508301</v>
+        <v>-5.836359977722168</v>
       </c>
       <c r="BY2">
-        <v>0.1440424472093582</v>
+        <v>-0.6243838667869568</v>
       </c>
       <c r="BZ2">
-        <v>-2.917345762252808</v>
+        <v>-3.578881978988647</v>
       </c>
       <c r="CA2">
-        <v>-9.490432739257812</v>
+        <v>-9.017665863037109</v>
       </c>
       <c r="CB2">
-        <v>-2.517997026443481</v>
+        <v>-1.821949005126953</v>
       </c>
       <c r="CC2">
-        <v>3.50654411315918</v>
+        <v>2.905455350875854</v>
       </c>
       <c r="CD2">
-        <v>-1.970386624336243</v>
+        <v>-1.225404143333435</v>
       </c>
       <c r="CE2">
-        <v>-1.822323560714722</v>
+        <v>-1.841570019721985</v>
       </c>
       <c r="CF2">
-        <v>-0.957093358039856</v>
+        <v>-0.08466441929340363</v>
       </c>
       <c r="CG2">
-        <v>1.51759135723114</v>
+        <v>1.012438416481018</v>
       </c>
       <c r="CH2">
-        <v>-17.19392585754395</v>
+        <v>-18.04186248779297</v>
       </c>
       <c r="CI2">
-        <v>0.5044109225273132</v>
+        <v>-0.07014032453298569</v>
       </c>
       <c r="CJ2">
-        <v>-13.29763126373291</v>
+        <v>-13.83272552490234</v>
       </c>
       <c r="CK2">
-        <v>-0.6230556964874268</v>
+        <v>-1.051293134689331</v>
       </c>
       <c r="CL2">
-        <v>-1.351651668548584</v>
+        <v>-1.802876710891724</v>
       </c>
       <c r="CM2">
-        <v>-10.67782497406006</v>
+        <v>-10.8695821762085</v>
       </c>
       <c r="CN2">
-        <v>-1.487259030342102</v>
+        <v>-0.8297271728515625</v>
       </c>
       <c r="CO2">
-        <v>-2.062715768814087</v>
+        <v>-2.446159839630127</v>
       </c>
       <c r="CP2">
-        <v>7.486847400665283</v>
+        <v>7.80389928817749</v>
       </c>
       <c r="CQ2">
-        <v>5.466161251068115</v>
+        <v>5.00836706161499</v>
       </c>
       <c r="CR2">
-        <v>3.933763742446899</v>
+        <v>4.168527603149414</v>
       </c>
       <c r="CS2">
-        <v>1.304285168647766</v>
+        <v>0.7445257306098938</v>
       </c>
       <c r="CT2">
-        <v>-1.268451452255249</v>
+        <v>-1.846392273902893</v>
       </c>
       <c r="CU2">
-        <v>-0.01185107138007879</v>
+        <v>0.3404641449451447</v>
       </c>
       <c r="CV2">
-        <v>-2.797277450561523</v>
+        <v>-3.250642776489258</v>
       </c>
       <c r="CW2">
-        <v>-4.294594287872314</v>
+        <v>-4.756914138793945</v>
       </c>
       <c r="CX2">
-        <v>-0.4084775149822235</v>
+        <v>0.08811871707439423</v>
       </c>
       <c r="CY2">
-        <v>-6.556935787200928</v>
+        <v>-5.811305522918701</v>
       </c>
       <c r="CZ2">
-        <v>-3.881437063217163</v>
+        <v>-4.279768943786621</v>
       </c>
       <c r="DA2">
-        <v>-3.719062566757202</v>
+        <v>-3.491035461425781</v>
       </c>
       <c r="DB2">
-        <v>-9.430438995361328</v>
+        <v>-8.733024597167969</v>
       </c>
       <c r="DC2">
-        <v>0.4870157539844513</v>
+        <v>-0.2367347627878189</v>
       </c>
       <c r="DD2">
-        <v>-15.77772617340088</v>
+        <v>-15.12558174133301</v>
       </c>
       <c r="DE2">
-        <v>-2.635626316070557</v>
+        <v>-3.182497024536133</v>
       </c>
       <c r="DF2">
-        <v>-1.852198958396912</v>
+        <v>-1.001638889312744</v>
       </c>
       <c r="DG2">
-        <v>1.091403961181641</v>
+        <v>0.7830435633659363</v>
       </c>
       <c r="DH2">
-        <v>-9.464531898498535</v>
+        <v>-10.07821846008301</v>
       </c>
       <c r="DI2">
-        <v>-1.264345049858093</v>
+        <v>-1.544428706169128</v>
       </c>
       <c r="DJ2">
-        <v>12.4879322052002</v>
+        <v>11.75504589080811</v>
       </c>
       <c r="DK2">
-        <v>2.951095342636108</v>
+        <v>3.713131189346313</v>
       </c>
       <c r="DL2">
-        <v>-17.31032180786133</v>
+        <v>-18.02033042907715</v>
       </c>
       <c r="DM2">
-        <v>-2.264706134796143</v>
+        <v>-1.787195563316345</v>
       </c>
       <c r="DN2">
-        <v>0.6552086472511292</v>
+        <v>0.0593104250729084</v>
       </c>
       <c r="DO2">
-        <v>-4.136329174041748</v>
+        <v>-4.8822922706604</v>
       </c>
       <c r="DP2">
-        <v>15.72395133972168</v>
+        <v>16.45112800598145</v>
       </c>
       <c r="DQ2">
-        <v>1.391266822814941</v>
+        <v>0.748193085193634</v>
       </c>
       <c r="DR2">
-        <v>-0.3388446867465973</v>
+        <v>0.4714467823505402</v>
       </c>
       <c r="DS2">
-        <v>-0.8313744068145752</v>
+        <v>-1.037527799606323</v>
       </c>
       <c r="DT2">
-        <v>4.724567413330078</v>
+        <v>5.255879878997803</v>
       </c>
       <c r="DU2">
-        <v>-9.60771369934082</v>
+        <v>-9.970856666564941</v>
       </c>
       <c r="DV2">
-        <v>2.729659557342529</v>
+        <v>1.835723519325256</v>
       </c>
       <c r="DW2">
-        <v>1.784160614013672</v>
+        <v>2.556108236312866</v>
       </c>
       <c r="DX2">
-        <v>-0.369561642408371</v>
+        <v>-0.9615908861160278</v>
       </c>
       <c r="DY2">
-        <v>-3.162889719009399</v>
+        <v>-3.257822275161743</v>
       </c>
       <c r="DZ2">
-        <v>-2.252743482589722</v>
+        <v>-2.878641843795776</v>
       </c>
       <c r="EA2">
-        <v>14.34267616271973</v>
+        <v>14.1622953414917</v>
       </c>
       <c r="EB2">
-        <v>1.161404728889465</v>
+        <v>0.5657289624214172</v>
       </c>
       <c r="EC2">
-        <v>-0.7062962055206299</v>
+        <v>0.1012937724590302</v>
       </c>
       <c r="ED2">
-        <v>-6.293674945831299</v>
+        <v>-7.03081750869751</v>
       </c>
       <c r="EE2">
-        <v>-2.449270009994507</v>
+        <v>-3.071611404418945</v>
       </c>
       <c r="EF2">
-        <v>-0.738609254360199</v>
+        <v>-0.09655575454235077</v>
       </c>
       <c r="EG2">
-        <v>0.6281866431236267</v>
+        <v>-0.0437195710837841</v>
       </c>
       <c r="EH2">
-        <v>-10.94660091400146</v>
+        <v>-10.20818901062012</v>
       </c>
       <c r="EI2">
-        <v>1.139504909515381</v>
+        <v>0.4158549904823303</v>
       </c>
       <c r="EJ2">
-        <v>13.53898811340332</v>
+        <v>13.83481979370117</v>
       </c>
       <c r="EK2">
-        <v>3.576072931289673</v>
+        <v>3.141903877258301</v>
       </c>
       <c r="EL2">
-        <v>0.6491786241531372</v>
+        <v>0.205490380525589</v>
       </c>
       <c r="EM2">
-        <v>7.753445148468018</v>
+        <v>6.873675346374512</v>
       </c>
       <c r="EN2">
-        <v>8.490130424499512</v>
+        <v>7.935201168060303</v>
       </c>
       <c r="EO2">
-        <v>6.933825492858887</v>
+        <v>6.450376987457275</v>
       </c>
       <c r="EP2">
-        <v>-9.154116630554199</v>
+        <v>-8.675490379333496</v>
       </c>
       <c r="EQ2">
-        <v>16.3503303527832</v>
+        <v>15.62389278411865</v>
       </c>
       <c r="ER2">
-        <v>0.05192958191037178</v>
+        <v>0.2508377730846405</v>
       </c>
       <c r="ES2">
-        <v>-22.3312816619873</v>
+        <v>-21.52182388305664</v>
       </c>
       <c r="ET2">
-        <v>-1.830398201942444</v>
+        <v>-2.470552682876587</v>
       </c>
       <c r="EU2">
-        <v>1.99563193321228</v>
+        <v>2.782216310501099</v>
       </c>
       <c r="EV2">
-        <v>1.615407943725586</v>
+        <v>0.9236800074577332</v>
       </c>
       <c r="EW2">
-        <v>-2.252474308013916</v>
+        <v>-2.620847225189209</v>
       </c>
       <c r="EX2">
-        <v>-18.02818489074707</v>
+        <v>-17.26193809509277</v>
       </c>
       <c r="EY2">
-        <v>2.990577936172485</v>
+        <v>2.326657056808472</v>
       </c>
       <c r="EZ2">
-        <v>2.6649329662323</v>
+        <v>1.885130047798157</v>
       </c>
       <c r="FA2">
-        <v>-1.380258560180664</v>
+        <v>-1.372632265090942</v>
       </c>
       <c r="FB2">
-        <v>-0.1071230322122574</v>
+        <v>-0.6709716320037842</v>
       </c>
       <c r="FC2">
-        <v>5.701352596282959</v>
+        <v>5.262292861938477</v>
       </c>
       <c r="FD2">
-        <v>-1.775347113609314</v>
+        <v>-2.035331010818481</v>
       </c>
       <c r="FE2">
-        <v>-13.54864120483398</v>
+        <v>-13.07877540588379</v>
       </c>
       <c r="FF2">
-        <v>-0.3890957236289978</v>
+        <v>-0.8015255928039551</v>
       </c>
       <c r="FG2">
-        <v>-16.11676025390625</v>
+        <v>-17.00025177001953</v>
       </c>
       <c r="FH2">
-        <v>1.23734712600708</v>
+        <v>0.7786734700202942</v>
       </c>
       <c r="FI2">
-        <v>-16.87233734130859</v>
+        <v>-16.3609561920166</v>
       </c>
       <c r="FJ2">
-        <v>-2.823347091674805</v>
+        <v>-3.576618194580078</v>
       </c>
       <c r="FK2">
-        <v>11.05926322937012</v>
+        <v>11.73635292053223</v>
       </c>
       <c r="FL2">
-        <v>-8.982930183410645</v>
+        <v>-9.77393627166748</v>
       </c>
       <c r="FM2">
-        <v>4.705577373504639</v>
+        <v>4.19937801361084</v>
       </c>
       <c r="FN2">
-        <v>5.322385787963867</v>
+        <v>6.164435863494873</v>
       </c>
       <c r="FO2">
-        <v>1.359022736549377</v>
+        <v>1.311335206031799</v>
       </c>
       <c r="FP2">
-        <v>-2.285557270050049</v>
+        <v>-2.911714553833008</v>
       </c>
       <c r="FQ2">
-        <v>0.87444007396698</v>
+        <v>0.4602479338645935</v>
       </c>
       <c r="FR2">
-        <v>3.425526142120361</v>
+        <v>2.815350294113159</v>
       </c>
       <c r="FS2">
-        <v>0.1796245127916336</v>
+        <v>-0.3537051379680634</v>
       </c>
       <c r="FT2">
-        <v>-0.7438700795173645</v>
+        <v>-0.9397602677345276</v>
       </c>
       <c r="FU2">
-        <v>-6.129918575286865</v>
+        <v>-6.889919757843018</v>
       </c>
       <c r="FV2">
-        <v>0.7763515114784241</v>
+        <v>0.2312090843915939</v>
       </c>
       <c r="FW2">
-        <v>0.368241548538208</v>
+        <v>-0.4073030352592468</v>
       </c>
       <c r="FX2">
-        <v>3.359091758728027</v>
+        <v>2.807610988616943</v>
       </c>
       <c r="FY2">
-        <v>1.770510315895081</v>
+        <v>2.300133228302002</v>
       </c>
       <c r="FZ2">
-        <v>-0.5134598612785339</v>
+        <v>0.3088801801204681</v>
       </c>
       <c r="GA2">
-        <v>-1.915726780891418</v>
+        <v>-2.78220534324646</v>
       </c>
       <c r="GB2">
-        <v>2.48840594291687</v>
+        <v>3.280826568603516</v>
       </c>
       <c r="GC2">
-        <v>-3.381657123565674</v>
+        <v>-3.341342687606812</v>
       </c>
       <c r="GD2">
-        <v>1.184894204139709</v>
+        <v>0.8822147250175476</v>
       </c>
       <c r="GE2">
-        <v>-1.20355212688446</v>
+        <v>-1.658153414726257</v>
       </c>
       <c r="GF2">
-        <v>0.3743705153465271</v>
+        <v>1.127739548683167</v>
       </c>
       <c r="GG2">
-        <v>-0.3359212577342987</v>
+        <v>-0.1104736253619194</v>
       </c>
       <c r="GH2">
-        <v>3.22219181060791</v>
+        <v>3.803869247436523</v>
       </c>
       <c r="GI2">
-        <v>-3.095723628997803</v>
+        <v>-2.882848739624023</v>
       </c>
       <c r="GJ2">
-        <v>0.8307053446769714</v>
+        <v>0.9778709411621094</v>
       </c>
       <c r="GK2">
-        <v>-9.524495124816895</v>
+        <v>-10.42945003509521</v>
       </c>
       <c r="GL2">
-        <v>-13.57116794586182</v>
+        <v>-14.41026210784912</v>
       </c>
       <c r="GM2">
-        <v>7.066162586212158</v>
+        <v>6.789444446563721</v>
       </c>
       <c r="GN2">
-        <v>-5.411865711212158</v>
+        <v>-4.449764728546143</v>
       </c>
       <c r="GO2">
-        <v>11.83040332794189</v>
+        <v>12.56397724151611</v>
       </c>
       <c r="GP2">
-        <v>-0.02458706870675087</v>
+        <v>-0.55112224817276</v>
       </c>
       <c r="GQ2">
-        <v>-1.010969519615173</v>
+        <v>-0.09527809172868729</v>
       </c>
       <c r="GR2">
-        <v>-0.1018159165978432</v>
+        <v>0.5240659713745117</v>
       </c>
       <c r="GS2">
-        <v>-4.056676864624023</v>
+        <v>-3.393143653869629</v>
       </c>
       <c r="GT2">
-        <v>-0.2594371140003204</v>
+        <v>-0.4308588802814484</v>
       </c>
       <c r="GU2">
-        <v>-1.683663129806519</v>
+        <v>-0.9330505728721619</v>
       </c>
       <c r="GV2">
-        <v>1.31104564666748</v>
+        <v>1.058029532432556</v>
       </c>
       <c r="GW2">
-        <v>-10.3880672454834</v>
+        <v>-10.20820617675781</v>
       </c>
       <c r="GX2">
-        <v>0.5275740623474121</v>
+        <v>0.1516928672790527</v>
       </c>
       <c r="GY2">
-        <v>-0.4880272448062897</v>
+        <v>-1.040404915809631</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Service Sector.xlsx
+++ b/static/Models/Classification/Equation/Service Sector.xlsx
@@ -637,7 +637,7 @@
     <t>intercept</t>
   </si>
   <si>
-    <t>2024-02-27</t>
+    <t>2024-03-01</t>
   </si>
 </sst>
 </file>
@@ -1629,622 +1629,622 @@
         <v>207</v>
       </c>
       <c r="B2">
-        <v>9.159773826599121</v>
+        <v>9.133966445922852</v>
       </c>
       <c r="C2">
-        <v>-1.052756905555725</v>
+        <v>0.3803758025169373</v>
       </c>
       <c r="D2">
-        <v>14.12152481079102</v>
+        <v>14.00736236572266</v>
       </c>
       <c r="E2">
-        <v>7.809808254241943</v>
+        <v>7.862889289855957</v>
       </c>
       <c r="F2">
-        <v>1.219267010688782</v>
+        <v>2.009654521942139</v>
       </c>
       <c r="G2">
-        <v>-2.323569297790527</v>
+        <v>-2.456130743026733</v>
       </c>
       <c r="H2">
-        <v>2.126636266708374</v>
+        <v>1.454630970954895</v>
       </c>
       <c r="I2">
-        <v>-3.398065805435181</v>
+        <v>-2.85330605506897</v>
       </c>
       <c r="J2">
-        <v>-4.502060413360596</v>
+        <v>-3.869282722473145</v>
       </c>
       <c r="K2">
-        <v>-0.02089102938771248</v>
+        <v>-1.074990391731262</v>
       </c>
       <c r="L2">
-        <v>-1.600872397422791</v>
+        <v>-2.190737962722778</v>
       </c>
       <c r="M2">
-        <v>0.9015645980834961</v>
+        <v>0.7516548633575439</v>
       </c>
       <c r="N2">
-        <v>-4.30381965637207</v>
+        <v>-3.539280652999878</v>
       </c>
       <c r="O2">
-        <v>6.101225852966309</v>
+        <v>5.852408885955811</v>
       </c>
       <c r="P2">
-        <v>-2.1778564453125</v>
+        <v>-2.070356607437134</v>
       </c>
       <c r="Q2">
-        <v>11.17125225067139</v>
+        <v>10.44065380096436</v>
       </c>
       <c r="R2">
-        <v>-2.065005779266357</v>
+        <v>-3.724364042282104</v>
       </c>
       <c r="S2">
-        <v>-14.40722370147705</v>
+        <v>-14.84358310699463</v>
       </c>
       <c r="T2">
-        <v>-8.34947395324707</v>
+        <v>-7.973389625549316</v>
       </c>
       <c r="U2">
-        <v>-15.04211235046387</v>
+        <v>-14.66452026367188</v>
       </c>
       <c r="V2">
-        <v>0.7268778681755066</v>
+        <v>1.336977243423462</v>
       </c>
       <c r="W2">
-        <v>-13.14283180236816</v>
+        <v>-13.1285400390625</v>
       </c>
       <c r="X2">
-        <v>-2.322103500366211</v>
+        <v>-1.855523347854614</v>
       </c>
       <c r="Y2">
-        <v>-7.154991149902344</v>
+        <v>-6.58405590057373</v>
       </c>
       <c r="Z2">
-        <v>1.747822523117065</v>
+        <v>1.04628574848175</v>
       </c>
       <c r="AA2">
-        <v>0.5048415064811707</v>
+        <v>0.681746244430542</v>
       </c>
       <c r="AB2">
-        <v>-1.086104154586792</v>
+        <v>-1.902565479278564</v>
       </c>
       <c r="AC2">
-        <v>-1.760719895362854</v>
+        <v>-2.48718786239624</v>
       </c>
       <c r="AD2">
-        <v>0.4563756585121155</v>
+        <v>0.8529979586601257</v>
       </c>
       <c r="AE2">
-        <v>-2.390406608581543</v>
+        <v>-3.636147260665894</v>
       </c>
       <c r="AF2">
-        <v>-1.645921349525452</v>
+        <v>-1.354009032249451</v>
       </c>
       <c r="AG2">
-        <v>-5.386487007141113</v>
+        <v>-5.685250282287598</v>
       </c>
       <c r="AH2">
-        <v>-4.482946395874023</v>
+        <v>-3.315757036209106</v>
       </c>
       <c r="AI2">
-        <v>17.60347175598145</v>
+        <v>17.85696792602539</v>
       </c>
       <c r="AJ2">
-        <v>-1.21872878074646</v>
+        <v>-1.002534627914429</v>
       </c>
       <c r="AK2">
-        <v>2.30499529838562</v>
+        <v>1.459853887557983</v>
       </c>
       <c r="AL2">
-        <v>1.180477380752563</v>
+        <v>2.003088712692261</v>
       </c>
       <c r="AM2">
-        <v>-11.0025749206543</v>
+        <v>-11.06543350219727</v>
       </c>
       <c r="AN2">
-        <v>0.03114185482263565</v>
+        <v>-0.6521201133728027</v>
       </c>
       <c r="AO2">
-        <v>-13.71735954284668</v>
+        <v>-14.83750343322754</v>
       </c>
       <c r="AP2">
-        <v>13.47479343414307</v>
+        <v>13.06248474121094</v>
       </c>
       <c r="AQ2">
-        <v>1.931660652160645</v>
+        <v>1.658454179763794</v>
       </c>
       <c r="AR2">
-        <v>-4.30424690246582</v>
+        <v>-4.025535106658936</v>
       </c>
       <c r="AS2">
-        <v>-6.390651702880859</v>
+        <v>-7.19297456741333</v>
       </c>
       <c r="AT2">
-        <v>0.349018782377243</v>
+        <v>0.4772939085960388</v>
       </c>
       <c r="AU2">
-        <v>0.3504767119884491</v>
+        <v>-0.07572387158870697</v>
       </c>
       <c r="AV2">
-        <v>-6.259423732757568</v>
+        <v>-6.683423042297363</v>
       </c>
       <c r="AW2">
-        <v>3.109849691390991</v>
+        <v>2.934395551681519</v>
       </c>
       <c r="AX2">
-        <v>0.08503769338130951</v>
+        <v>-0.3063793182373047</v>
       </c>
       <c r="AY2">
-        <v>-9.87745475769043</v>
+        <v>-10.5514087677002</v>
       </c>
       <c r="AZ2">
-        <v>-5.400087833404541</v>
+        <v>-5.069031238555908</v>
       </c>
       <c r="BA2">
-        <v>8.956256866455078</v>
+        <v>9.856529235839844</v>
       </c>
       <c r="BB2">
-        <v>4.099399089813232</v>
+        <v>3.61149001121521</v>
       </c>
       <c r="BC2">
-        <v>0.181714341044426</v>
+        <v>0.3654366135597229</v>
       </c>
       <c r="BD2">
-        <v>0.8759201169013977</v>
+        <v>1.201318144798279</v>
       </c>
       <c r="BE2">
-        <v>0.5056483149528503</v>
+        <v>-0.2991845011711121</v>
       </c>
       <c r="BF2">
-        <v>-0.8443009257316589</v>
+        <v>-1.062108159065247</v>
       </c>
       <c r="BG2">
-        <v>0.4294770061969757</v>
+        <v>0.7301796674728394</v>
       </c>
       <c r="BH2">
-        <v>0.9739984273910522</v>
+        <v>0.8375467658042908</v>
       </c>
       <c r="BI2">
-        <v>-7.233730316162109</v>
+        <v>-6.840586185455322</v>
       </c>
       <c r="BJ2">
-        <v>2.969901084899902</v>
+        <v>3.177942037582397</v>
       </c>
       <c r="BK2">
-        <v>-0.4242515563964844</v>
+        <v>0.1607403606176376</v>
       </c>
       <c r="BL2">
-        <v>7.141332149505615</v>
+        <v>7.065871715545654</v>
       </c>
       <c r="BM2">
-        <v>-5.531639575958252</v>
+        <v>-5.621675491333008</v>
       </c>
       <c r="BN2">
-        <v>-0.5194433927536011</v>
+        <v>-0.3290864825248718</v>
       </c>
       <c r="BO2">
-        <v>2.012839555740356</v>
+        <v>3.207816362380981</v>
       </c>
       <c r="BP2">
-        <v>-1.843294382095337</v>
+        <v>-2.962290048599243</v>
       </c>
       <c r="BQ2">
-        <v>-4.073904037475586</v>
+        <v>-4.57692813873291</v>
       </c>
       <c r="BR2">
-        <v>4.286314964294434</v>
+        <v>4.424793720245361</v>
       </c>
       <c r="BS2">
-        <v>1.013085961341858</v>
+        <v>1.360077261924744</v>
       </c>
       <c r="BT2">
-        <v>3.676559209823608</v>
+        <v>3.281295299530029</v>
       </c>
       <c r="BU2">
-        <v>0.9022163152694702</v>
+        <v>1.169416308403015</v>
       </c>
       <c r="BV2">
-        <v>-5.96591854095459</v>
+        <v>-5.954621315002441</v>
       </c>
       <c r="BW2">
-        <v>1.86898136138916</v>
+        <v>1.945119023323059</v>
       </c>
       <c r="BX2">
-        <v>-5.836359977722168</v>
+        <v>-5.167716503143311</v>
       </c>
       <c r="BY2">
-        <v>-0.6243838667869568</v>
+        <v>-0.3413251340389252</v>
       </c>
       <c r="BZ2">
-        <v>-3.578881978988647</v>
+        <v>-3.193368434906006</v>
       </c>
       <c r="CA2">
-        <v>-9.017665863037109</v>
+        <v>-9.396481513977051</v>
       </c>
       <c r="CB2">
-        <v>-1.821949005126953</v>
+        <v>-2.204696416854858</v>
       </c>
       <c r="CC2">
-        <v>2.905455350875854</v>
+        <v>3.289215803146362</v>
       </c>
       <c r="CD2">
-        <v>-1.225404143333435</v>
+        <v>-1.851916551589966</v>
       </c>
       <c r="CE2">
-        <v>-1.841570019721985</v>
+        <v>-2.838823080062866</v>
       </c>
       <c r="CF2">
-        <v>-0.08466441929340363</v>
+        <v>-0.2571263909339905</v>
       </c>
       <c r="CG2">
-        <v>1.012438416481018</v>
+        <v>2.693137407302856</v>
       </c>
       <c r="CH2">
-        <v>-18.04186248779297</v>
+        <v>-17.97126197814941</v>
       </c>
       <c r="CI2">
-        <v>-0.07014032453298569</v>
+        <v>0.438497930765152</v>
       </c>
       <c r="CJ2">
-        <v>-13.83272552490234</v>
+        <v>-14.18420886993408</v>
       </c>
       <c r="CK2">
-        <v>-1.051293134689331</v>
+        <v>-1.278339862823486</v>
       </c>
       <c r="CL2">
-        <v>-1.802876710891724</v>
+        <v>-1.123210430145264</v>
       </c>
       <c r="CM2">
-        <v>-10.8695821762085</v>
+        <v>-12.52046298980713</v>
       </c>
       <c r="CN2">
-        <v>-0.8297271728515625</v>
+        <v>-0.8824905753135681</v>
       </c>
       <c r="CO2">
-        <v>-2.446159839630127</v>
+        <v>-1.924223303794861</v>
       </c>
       <c r="CP2">
-        <v>7.80389928817749</v>
+        <v>7.14001989364624</v>
       </c>
       <c r="CQ2">
-        <v>5.00836706161499</v>
+        <v>5.650128841400146</v>
       </c>
       <c r="CR2">
-        <v>4.168527603149414</v>
+        <v>5.086355686187744</v>
       </c>
       <c r="CS2">
-        <v>0.7445257306098938</v>
+        <v>1.046854853630066</v>
       </c>
       <c r="CT2">
-        <v>-1.846392273902893</v>
+        <v>-1.395252823829651</v>
       </c>
       <c r="CU2">
-        <v>0.3404641449451447</v>
+        <v>1.02873682975769</v>
       </c>
       <c r="CV2">
-        <v>-3.250642776489258</v>
+        <v>-4.031436443328857</v>
       </c>
       <c r="CW2">
-        <v>-4.756914138793945</v>
+        <v>-5.640358924865723</v>
       </c>
       <c r="CX2">
-        <v>0.08811871707439423</v>
+        <v>-0.9498749375343323</v>
       </c>
       <c r="CY2">
-        <v>-5.811305522918701</v>
+        <v>-5.830017566680908</v>
       </c>
       <c r="CZ2">
-        <v>-4.279768943786621</v>
+        <v>-3.88641881942749</v>
       </c>
       <c r="DA2">
-        <v>-3.491035461425781</v>
+        <v>-3.203890085220337</v>
       </c>
       <c r="DB2">
-        <v>-8.733024597167969</v>
+        <v>-8.520199775695801</v>
       </c>
       <c r="DC2">
-        <v>-0.2367347627878189</v>
+        <v>0.6639701724052429</v>
       </c>
       <c r="DD2">
-        <v>-15.12558174133301</v>
+        <v>-14.65264511108398</v>
       </c>
       <c r="DE2">
-        <v>-3.182497024536133</v>
+        <v>-2.862331390380859</v>
       </c>
       <c r="DF2">
-        <v>-1.001638889312744</v>
+        <v>-1.028516411781311</v>
       </c>
       <c r="DG2">
-        <v>0.7830435633659363</v>
+        <v>0.4803640842437744</v>
       </c>
       <c r="DH2">
-        <v>-10.07821846008301</v>
+        <v>-11.13719463348389</v>
       </c>
       <c r="DI2">
-        <v>-1.544428706169128</v>
+        <v>-1.24715781211853</v>
       </c>
       <c r="DJ2">
-        <v>11.75504589080811</v>
+        <v>11.74622917175293</v>
       </c>
       <c r="DK2">
-        <v>3.713131189346313</v>
+        <v>3.305022478103638</v>
       </c>
       <c r="DL2">
-        <v>-18.02033042907715</v>
+        <v>-17.14011573791504</v>
       </c>
       <c r="DM2">
-        <v>-1.787195563316345</v>
+        <v>-0.7489427328109741</v>
       </c>
       <c r="DN2">
-        <v>0.0593104250729084</v>
+        <v>0.389687716960907</v>
       </c>
       <c r="DO2">
-        <v>-4.8822922706604</v>
+        <v>-4.792680263519287</v>
       </c>
       <c r="DP2">
-        <v>16.45112800598145</v>
+        <v>16.4313793182373</v>
       </c>
       <c r="DQ2">
-        <v>0.748193085193634</v>
+        <v>1.230647325515747</v>
       </c>
       <c r="DR2">
-        <v>0.4714467823505402</v>
+        <v>1.18683934211731</v>
       </c>
       <c r="DS2">
-        <v>-1.037527799606323</v>
+        <v>0.03918737545609474</v>
       </c>
       <c r="DT2">
-        <v>5.255879878997803</v>
+        <v>5.213829040527344</v>
       </c>
       <c r="DU2">
-        <v>-9.970856666564941</v>
+        <v>-8.788220405578613</v>
       </c>
       <c r="DV2">
-        <v>1.835723519325256</v>
+        <v>1.856977224349976</v>
       </c>
       <c r="DW2">
-        <v>2.556108236312866</v>
+        <v>1.65093982219696</v>
       </c>
       <c r="DX2">
-        <v>-0.9615908861160278</v>
+        <v>-0.7370589971542358</v>
       </c>
       <c r="DY2">
-        <v>-3.257822275161743</v>
+        <v>-2.853262662887573</v>
       </c>
       <c r="DZ2">
-        <v>-2.878641843795776</v>
+        <v>-2.432097196578979</v>
       </c>
       <c r="EA2">
-        <v>14.1622953414917</v>
+        <v>13.87571716308594</v>
       </c>
       <c r="EB2">
-        <v>0.5657289624214172</v>
+        <v>0.8815615773200989</v>
       </c>
       <c r="EC2">
-        <v>0.1012937724590302</v>
+        <v>-0.08538110554218292</v>
       </c>
       <c r="ED2">
-        <v>-7.03081750869751</v>
+        <v>-6.671107769012451</v>
       </c>
       <c r="EE2">
-        <v>-3.071611404418945</v>
+        <v>-2.920240879058838</v>
       </c>
       <c r="EF2">
-        <v>-0.09655575454235077</v>
+        <v>-0.3150369226932526</v>
       </c>
       <c r="EG2">
-        <v>-0.0437195710837841</v>
+        <v>-0.2355794757604599</v>
       </c>
       <c r="EH2">
-        <v>-10.20818901062012</v>
+        <v>-10.87490367889404</v>
       </c>
       <c r="EI2">
-        <v>0.4158549904823303</v>
+        <v>0.6625956892967224</v>
       </c>
       <c r="EJ2">
-        <v>13.83481979370117</v>
+        <v>13.76991939544678</v>
       </c>
       <c r="EK2">
-        <v>3.141903877258301</v>
+        <v>3.606290340423584</v>
       </c>
       <c r="EL2">
-        <v>0.205490380525589</v>
+        <v>0.81242436170578</v>
       </c>
       <c r="EM2">
-        <v>6.873675346374512</v>
+        <v>7.005268573760986</v>
       </c>
       <c r="EN2">
-        <v>7.935201168060303</v>
+        <v>7.88605260848999</v>
       </c>
       <c r="EO2">
-        <v>6.450376987457275</v>
+        <v>7.990989685058594</v>
       </c>
       <c r="EP2">
-        <v>-8.675490379333496</v>
+        <v>-9.780831336975098</v>
       </c>
       <c r="EQ2">
-        <v>15.62389278411865</v>
+        <v>14.88748359680176</v>
       </c>
       <c r="ER2">
-        <v>0.2508377730846405</v>
+        <v>0.4312651455402374</v>
       </c>
       <c r="ES2">
-        <v>-21.52182388305664</v>
+        <v>-20.60342025756836</v>
       </c>
       <c r="ET2">
-        <v>-2.470552682876587</v>
+        <v>-2.232373476028442</v>
       </c>
       <c r="EU2">
-        <v>2.782216310501099</v>
+        <v>3.262354135513306</v>
       </c>
       <c r="EV2">
-        <v>0.9236800074577332</v>
+        <v>1.221439361572266</v>
       </c>
       <c r="EW2">
-        <v>-2.620847225189209</v>
+        <v>-2.303781270980835</v>
       </c>
       <c r="EX2">
-        <v>-17.26193809509277</v>
+        <v>-16.97593879699707</v>
       </c>
       <c r="EY2">
-        <v>2.326657056808472</v>
+        <v>2.527054071426392</v>
       </c>
       <c r="EZ2">
-        <v>1.885130047798157</v>
+        <v>1.891700983047485</v>
       </c>
       <c r="FA2">
-        <v>-1.372632265090942</v>
+        <v>-1.582869291305542</v>
       </c>
       <c r="FB2">
-        <v>-0.6709716320037842</v>
+        <v>-0.1579598188400269</v>
       </c>
       <c r="FC2">
-        <v>5.262292861938477</v>
+        <v>4.510577201843262</v>
       </c>
       <c r="FD2">
-        <v>-2.035331010818481</v>
+        <v>-1.868972420692444</v>
       </c>
       <c r="FE2">
-        <v>-13.07877540588379</v>
+        <v>-11.45335006713867</v>
       </c>
       <c r="FF2">
-        <v>-0.8015255928039551</v>
+        <v>-0.8396829962730408</v>
       </c>
       <c r="FG2">
-        <v>-17.00025177001953</v>
+        <v>-17.01253318786621</v>
       </c>
       <c r="FH2">
-        <v>0.7786734700202942</v>
+        <v>0.7445530891418457</v>
       </c>
       <c r="FI2">
-        <v>-16.3609561920166</v>
+        <v>-15.29429626464844</v>
       </c>
       <c r="FJ2">
-        <v>-3.576618194580078</v>
+        <v>-3.576680660247803</v>
       </c>
       <c r="FK2">
-        <v>11.73635292053223</v>
+        <v>11.00617122650146</v>
       </c>
       <c r="FL2">
-        <v>-9.77393627166748</v>
+        <v>-10.60584831237793</v>
       </c>
       <c r="FM2">
-        <v>4.19937801361084</v>
+        <v>3.760450601577759</v>
       </c>
       <c r="FN2">
-        <v>6.164435863494873</v>
+        <v>6.097623348236084</v>
       </c>
       <c r="FO2">
-        <v>1.311335206031799</v>
+        <v>1.430539131164551</v>
       </c>
       <c r="FP2">
-        <v>-2.911714553833008</v>
+        <v>-2.211764812469482</v>
       </c>
       <c r="FQ2">
-        <v>0.4602479338645935</v>
+        <v>0.8586829304695129</v>
       </c>
       <c r="FR2">
-        <v>2.815350294113159</v>
+        <v>3.275647163391113</v>
       </c>
       <c r="FS2">
-        <v>-0.3537051379680634</v>
+        <v>0.2465789616107941</v>
       </c>
       <c r="FT2">
-        <v>-0.9397602677345276</v>
+        <v>-0.3601502180099487</v>
       </c>
       <c r="FU2">
-        <v>-6.889919757843018</v>
+        <v>-6.628283023834229</v>
       </c>
       <c r="FV2">
-        <v>0.2312090843915939</v>
+        <v>0.107440821826458</v>
       </c>
       <c r="FW2">
-        <v>-0.4073030352592468</v>
+        <v>-0.02358408458530903</v>
       </c>
       <c r="FX2">
-        <v>2.807610988616943</v>
+        <v>2.473686218261719</v>
       </c>
       <c r="FY2">
-        <v>2.300133228302002</v>
+        <v>1.3655024766922</v>
       </c>
       <c r="FZ2">
-        <v>0.3088801801204681</v>
+        <v>-0.5435824990272522</v>
       </c>
       <c r="GA2">
-        <v>-2.78220534324646</v>
+        <v>-2.987185478210449</v>
       </c>
       <c r="GB2">
-        <v>3.280826568603516</v>
+        <v>4.378626823425293</v>
       </c>
       <c r="GC2">
-        <v>-3.341342687606812</v>
+        <v>-3.720294713973999</v>
       </c>
       <c r="GD2">
-        <v>0.8822147250175476</v>
+        <v>-0.05119070038199425</v>
       </c>
       <c r="GE2">
-        <v>-1.658153414726257</v>
+        <v>-1.119832634925842</v>
       </c>
       <c r="GF2">
-        <v>1.127739548683167</v>
+        <v>0.5203279256820679</v>
       </c>
       <c r="GG2">
-        <v>-0.1104736253619194</v>
+        <v>-0.2302160263061523</v>
       </c>
       <c r="GH2">
-        <v>3.803869247436523</v>
+        <v>4.453414440155029</v>
       </c>
       <c r="GI2">
-        <v>-2.882848739624023</v>
+        <v>-4.348173141479492</v>
       </c>
       <c r="GJ2">
-        <v>0.9778709411621094</v>
+        <v>0.5660853981971741</v>
       </c>
       <c r="GK2">
-        <v>-10.42945003509521</v>
+        <v>-10.50357818603516</v>
       </c>
       <c r="GL2">
-        <v>-14.41026210784912</v>
+        <v>-13.82832717895508</v>
       </c>
       <c r="GM2">
-        <v>6.789444446563721</v>
+        <v>6.268101692199707</v>
       </c>
       <c r="GN2">
-        <v>-4.449764728546143</v>
+        <v>-4.073596954345703</v>
       </c>
       <c r="GO2">
-        <v>12.56397724151611</v>
+        <v>12.57650089263916</v>
       </c>
       <c r="GP2">
-        <v>-0.55112224817276</v>
+        <v>-0.1094942465424538</v>
       </c>
       <c r="GQ2">
-        <v>-0.09527809172868729</v>
+        <v>0.8027732968330383</v>
       </c>
       <c r="GR2">
-        <v>0.5240659713745117</v>
+        <v>-0.1068959981203079</v>
       </c>
       <c r="GS2">
-        <v>-3.393143653869629</v>
+        <v>-3.537570238113403</v>
       </c>
       <c r="GT2">
-        <v>-0.4308588802814484</v>
+        <v>-0.3715800642967224</v>
       </c>
       <c r="GU2">
-        <v>-0.9330505728721619</v>
+        <v>-1.021697878837585</v>
       </c>
       <c r="GV2">
-        <v>1.058029532432556</v>
+        <v>0.6791097521781921</v>
       </c>
       <c r="GW2">
-        <v>-10.20820617675781</v>
+        <v>-11.89621353149414</v>
       </c>
       <c r="GX2">
-        <v>0.1516928672790527</v>
+        <v>0.9239315390586853</v>
       </c>
       <c r="GY2">
-        <v>-1.040404915809631</v>
+        <v>-0.6812644004821777</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Service Sector.xlsx
+++ b/static/Models/Classification/Equation/Service Sector.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-04</t>
+          <t>2024-03-05</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.310242652893066</v>
+        <v>8.972151756286621</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.4549008011817932</v>
+        <v>-1.12754237651825</v>
       </c>
       <c r="D2" t="n">
-        <v>13.3051872253418</v>
+        <v>12.83368301391602</v>
       </c>
       <c r="E2" t="n">
-        <v>8.601410865783691</v>
+        <v>8.938862800598145</v>
       </c>
       <c r="F2" t="n">
-        <v>1.264589190483093</v>
+        <v>1.796847343444824</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.165322780609131</v>
+        <v>-2.596035242080688</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6779416799545288</v>
+        <v>1.260943293571472</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.800872206687927</v>
+        <v>-1.195608854293823</v>
       </c>
       <c r="J2" t="n">
-        <v>-4.6002516746521</v>
+        <v>-3.960973739624023</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.6452124118804932</v>
+        <v>-0.1124440878629684</v>
       </c>
       <c r="L2" t="n">
-        <v>-1.62705934047699</v>
+        <v>-2.117923736572266</v>
       </c>
       <c r="M2" t="n">
-        <v>0.7867914438247681</v>
+        <v>0.2236077040433884</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.81036639213562</v>
+        <v>-2.15204644203186</v>
       </c>
       <c r="O2" t="n">
-        <v>5.035579681396484</v>
+        <v>5.588955402374268</v>
       </c>
       <c r="P2" t="n">
-        <v>-2.813424825668335</v>
+        <v>-2.426779508590698</v>
       </c>
       <c r="Q2" t="n">
-        <v>10.13125228881836</v>
+        <v>9.334888458251953</v>
       </c>
       <c r="R2" t="n">
-        <v>-3.004889488220215</v>
+        <v>-3.539100170135498</v>
       </c>
       <c r="S2" t="n">
-        <v>-15.59366703033447</v>
+        <v>-14.96136379241943</v>
       </c>
       <c r="T2" t="n">
-        <v>-7.208241939544678</v>
+        <v>-7.831205368041992</v>
       </c>
       <c r="U2" t="n">
-        <v>-14.91070556640625</v>
+        <v>-15.15066242218018</v>
       </c>
       <c r="V2" t="n">
-        <v>0.7993783354759216</v>
+        <v>1.359828472137451</v>
       </c>
       <c r="W2" t="n">
-        <v>-14.03195476531982</v>
+        <v>-13.43941974639893</v>
       </c>
       <c r="X2" t="n">
-        <v>-2.551851511001587</v>
+        <v>-3.228047609329224</v>
       </c>
       <c r="Y2" t="n">
-        <v>-7.132832527160645</v>
+        <v>-7.671164035797119</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.667264699935913</v>
+        <v>1.33869194984436</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.274130702018738</v>
+        <v>0.5618107318878174</v>
       </c>
       <c r="AB2" t="n">
-        <v>-1.162551403045654</v>
+        <v>-0.5700387358665466</v>
       </c>
       <c r="AC2" t="n">
-        <v>-3.388532161712646</v>
+        <v>-2.706214427947998</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.4784670174121857</v>
+        <v>0.3396220803260803</v>
       </c>
       <c r="AE2" t="n">
-        <v>-2.937126636505127</v>
+        <v>-3.231419563293457</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.7899519801139832</v>
+        <v>-1.462538242340088</v>
       </c>
       <c r="AG2" t="n">
-        <v>-6.528869152069092</v>
+        <v>-5.901115894317627</v>
       </c>
       <c r="AH2" t="n">
-        <v>-2.654135942459106</v>
+        <v>-1.914337158203125</v>
       </c>
       <c r="AI2" t="n">
-        <v>17.35314750671387</v>
+        <v>17.75154685974121</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-1.437377572059631</v>
+        <v>-1.062742114067078</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.896883249282837</v>
+        <v>2.300338983535767</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.36068332195282</v>
+        <v>1.931016206741333</v>
       </c>
       <c r="AM2" t="n">
-        <v>-10.50376224517822</v>
+        <v>-10.95402240753174</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.1755144894123077</v>
+        <v>-0.214572936296463</v>
       </c>
       <c r="AO2" t="n">
-        <v>-14.14984798431396</v>
+        <v>-14.67223262786865</v>
       </c>
       <c r="AP2" t="n">
-        <v>12.37062072753906</v>
+        <v>11.96778011322021</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.037685990333557</v>
+        <v>1.377119302749634</v>
       </c>
       <c r="AR2" t="n">
-        <v>-3.264628648757935</v>
+        <v>-2.822299957275391</v>
       </c>
       <c r="AS2" t="n">
-        <v>-6.27450704574585</v>
+        <v>-6.393134593963623</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.3535573482513428</v>
+        <v>-0.008241061121225357</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.8696678876876831</v>
+        <v>-1.471497178077698</v>
       </c>
       <c r="AV2" t="n">
-        <v>-7.403700351715088</v>
+        <v>-6.873578548431396</v>
       </c>
       <c r="AW2" t="n">
-        <v>3.444807291030884</v>
+        <v>2.830456495285034</v>
       </c>
       <c r="AX2" t="n">
-        <v>-1.143226623535156</v>
+        <v>-0.6247391104698181</v>
       </c>
       <c r="AY2" t="n">
-        <v>-11.19464588165283</v>
+        <v>-10.59123706817627</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-5.243198871612549</v>
+        <v>-4.775893211364746</v>
       </c>
       <c r="BA2" t="n">
-        <v>9.033007621765137</v>
+        <v>8.834288597106934</v>
       </c>
       <c r="BB2" t="n">
-        <v>3.815850496292114</v>
+        <v>4.268460750579834</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.003274321556091</v>
+        <v>1.475598931312561</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.8007640838623047</v>
+        <v>0.212455689907074</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.9995811581611633</v>
+        <v>-1.354389071464539</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.6343833208084106</v>
+        <v>-0.2402303814888</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.2176707834005356</v>
+        <v>0.5899507999420166</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.2469464391469955</v>
+        <v>0.772855818271637</v>
       </c>
       <c r="BI2" t="n">
-        <v>-6.000092506408691</v>
+        <v>-6.679633140563965</v>
       </c>
       <c r="BJ2" t="n">
-        <v>3.819667100906372</v>
+        <v>4.299355506896973</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.6540648341178894</v>
+        <v>0.03954038769006729</v>
       </c>
       <c r="BL2" t="n">
-        <v>6.195935249328613</v>
+        <v>6.825680255889893</v>
       </c>
       <c r="BM2" t="n">
-        <v>-6.321399688720703</v>
+        <v>-6.934635639190674</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.430816113948822</v>
+        <v>-0.1186108216643333</v>
       </c>
       <c r="BO2" t="n">
-        <v>2.484030485153198</v>
+        <v>3.049165725708008</v>
       </c>
       <c r="BP2" t="n">
-        <v>-2.09183406829834</v>
+        <v>-1.574810028076172</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-5.368715286254883</v>
+        <v>-5.071342468261719</v>
       </c>
       <c r="BR2" t="n">
-        <v>5.131087779998779</v>
+        <v>4.595117092132568</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.030702233314514</v>
+        <v>1.569224119186401</v>
       </c>
       <c r="BT2" t="n">
-        <v>3.775590658187866</v>
+        <v>3.759232044219971</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.093849062919617</v>
+        <v>0.453273206949234</v>
       </c>
       <c r="BV2" t="n">
-        <v>-6.71121883392334</v>
+        <v>-6.17901086807251</v>
       </c>
       <c r="BW2" t="n">
-        <v>1.139459609985352</v>
+        <v>1.645384907722473</v>
       </c>
       <c r="BX2" t="n">
-        <v>-5.955889701843262</v>
+        <v>-5.310604572296143</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.3064735233783722</v>
+        <v>-0.3314506411552429</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-3.915256261825562</v>
+        <v>-3.26262092590332</v>
       </c>
       <c r="CA2" t="n">
-        <v>-10.33961582183838</v>
+        <v>-10.94067859649658</v>
       </c>
       <c r="CB2" t="n">
-        <v>-1.441563010215759</v>
+        <v>-1.955849647521973</v>
       </c>
       <c r="CC2" t="n">
-        <v>2.745265960693359</v>
+        <v>3.364631175994873</v>
       </c>
       <c r="CD2" t="n">
-        <v>-2.591240167617798</v>
+        <v>-3.16049337387085</v>
       </c>
       <c r="CE2" t="n">
-        <v>-2.111766576766968</v>
+        <v>-2.680142164230347</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.4221149682998657</v>
+        <v>1.130133748054504</v>
       </c>
       <c r="CG2" t="n">
-        <v>2.082849979400635</v>
+        <v>2.604500532150269</v>
       </c>
       <c r="CH2" t="n">
-        <v>-18.5351390838623</v>
+        <v>-19.08449363708496</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.06206464767456055</v>
+        <v>-0.02153952233493328</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-13.35797595977783</v>
+        <v>-13.92168998718262</v>
       </c>
       <c r="CK2" t="n">
-        <v>-0.8467639088630676</v>
+        <v>-1.443164706230164</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.9239540696144104</v>
+        <v>-0.2962542772293091</v>
       </c>
       <c r="CM2" t="n">
-        <v>-11.76641273498535</v>
+        <v>-12.02121829986572</v>
       </c>
       <c r="CN2" t="n">
-        <v>-1.739057660102844</v>
+        <v>-1.193337082862854</v>
       </c>
       <c r="CO2" t="n">
-        <v>-2.384116411209106</v>
+        <v>-2.097321271896362</v>
       </c>
       <c r="CP2" t="n">
-        <v>7.940838813781738</v>
+        <v>7.310429096221924</v>
       </c>
       <c r="CQ2" t="n">
-        <v>4.883837223052979</v>
+        <v>4.374820232391357</v>
       </c>
       <c r="CR2" t="n">
-        <v>4.27673864364624</v>
+        <v>4.689534664154053</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.5200205445289612</v>
+        <v>0.4375731348991394</v>
       </c>
       <c r="CT2" t="n">
-        <v>-1.85905921459198</v>
+        <v>-1.229175090789795</v>
       </c>
       <c r="CU2" t="n">
-        <v>1.538018941879272</v>
+        <v>0.9339132308959961</v>
       </c>
       <c r="CV2" t="n">
-        <v>-3.366096019744873</v>
+        <v>-2.871947526931763</v>
       </c>
       <c r="CW2" t="n">
-        <v>-6.249958992004395</v>
+        <v>-6.855079650878906</v>
       </c>
       <c r="CX2" t="n">
-        <v>-1.253208041191101</v>
+        <v>-0.9704998135566711</v>
       </c>
       <c r="CY2" t="n">
-        <v>-5.315717697143555</v>
+        <v>-5.929949760437012</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-3.28915548324585</v>
+        <v>-3.924474477767944</v>
       </c>
       <c r="DA2" t="n">
-        <v>-3.94610857963562</v>
+        <v>-3.366333484649658</v>
       </c>
       <c r="DB2" t="n">
-        <v>-7.903633117675781</v>
+        <v>-7.460931777954102</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.3060961365699768</v>
+        <v>0.2618848979473114</v>
       </c>
       <c r="DD2" t="n">
-        <v>-13.97404289245605</v>
+        <v>-13.2446870803833</v>
       </c>
       <c r="DE2" t="n">
-        <v>-3.312282800674438</v>
+        <v>-3.36057186126709</v>
       </c>
       <c r="DF2" t="n">
-        <v>-1.693615317344666</v>
+        <v>-0.941342294216156</v>
       </c>
       <c r="DG2" t="n">
-        <v>1.108394742012024</v>
+        <v>0.5581049919128418</v>
       </c>
       <c r="DH2" t="n">
-        <v>-12.24839973449707</v>
+        <v>-12.88201141357422</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.5836812257766724</v>
+        <v>-0.2407464981079102</v>
       </c>
       <c r="DJ2" t="n">
-        <v>11.03550720214844</v>
+        <v>10.49638557434082</v>
       </c>
       <c r="DK2" t="n">
-        <v>2.888266563415527</v>
+        <v>2.250959396362305</v>
       </c>
       <c r="DL2" t="n">
-        <v>-17.63217926025391</v>
+        <v>-17.09328460693359</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.4491525590419769</v>
+        <v>-0.01161623280495405</v>
       </c>
       <c r="DN2" t="n">
-        <v>-0.0516340434551239</v>
+        <v>0.387871652841568</v>
       </c>
       <c r="DO2" t="n">
-        <v>-4.574248790740967</v>
+        <v>-5.045462608337402</v>
       </c>
       <c r="DP2" t="n">
-        <v>15.55961990356445</v>
+        <v>16.22263526916504</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1.160559773445129</v>
+        <v>0.5923758745193481</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.5780193209648132</v>
+        <v>-0.05967320501804352</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.2709566056728363</v>
+        <v>-0.862087070941925</v>
       </c>
       <c r="DT2" t="n">
-        <v>5.825275421142578</v>
+        <v>5.285290718078613</v>
       </c>
       <c r="DU2" t="n">
-        <v>-8.953327178955078</v>
+        <v>-9.582780838012695</v>
       </c>
       <c r="DV2" t="n">
-        <v>2.672975301742554</v>
+        <v>3.142393112182617</v>
       </c>
       <c r="DW2" t="n">
-        <v>2.551229238510132</v>
+        <v>2.053731918334961</v>
       </c>
       <c r="DX2" t="n">
-        <v>-1.21160352230072</v>
+        <v>-0.6511483788490295</v>
       </c>
       <c r="DY2" t="n">
-        <v>-2.090412378311157</v>
+        <v>-2.744159936904907</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-3.14988112449646</v>
+        <v>-2.567217111587524</v>
       </c>
       <c r="EA2" t="n">
-        <v>13.32211017608643</v>
+        <v>13.65653038024902</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.479410320520401</v>
+        <v>0.5573248863220215</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.2188202142715454</v>
+        <v>-0.7598532438278198</v>
       </c>
       <c r="ED2" t="n">
-        <v>-5.871894359588623</v>
+        <v>-6.576515197753906</v>
       </c>
       <c r="EE2" t="n">
-        <v>-2.202146053314209</v>
+        <v>-2.283752679824829</v>
       </c>
       <c r="EF2" t="n">
-        <v>-1.118642568588257</v>
+        <v>-0.719380259513855</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.149321049451828</v>
+        <v>-0.261532723903656</v>
       </c>
       <c r="EH2" t="n">
-        <v>-10.04666137695312</v>
+        <v>-9.393424987792969</v>
       </c>
       <c r="EI2" t="n">
-        <v>-0.04608216136693954</v>
+        <v>0.6095439791679382</v>
       </c>
       <c r="EJ2" t="n">
-        <v>14.54988193511963</v>
+        <v>13.98612785339355</v>
       </c>
       <c r="EK2" t="n">
-        <v>4.498561859130859</v>
+        <v>5.099864482879639</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.3533191382884979</v>
+        <v>0.7045766115188599</v>
       </c>
       <c r="EM2" t="n">
-        <v>7.714233875274658</v>
+        <v>8.167463302612305</v>
       </c>
       <c r="EN2" t="n">
-        <v>7.767229557037354</v>
+        <v>8.244505882263184</v>
       </c>
       <c r="EO2" t="n">
-        <v>7.401231288909912</v>
+        <v>7.91384744644165</v>
       </c>
       <c r="EP2" t="n">
-        <v>-10.60939598083496</v>
+        <v>-10.04201507568359</v>
       </c>
       <c r="EQ2" t="n">
-        <v>13.94077396392822</v>
+        <v>13.20245838165283</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.153069019317627</v>
+        <v>1.75492262840271</v>
       </c>
       <c r="ES2" t="n">
-        <v>-19.89416694641113</v>
+        <v>-19.82475090026855</v>
       </c>
       <c r="ET2" t="n">
-        <v>-2.983776330947876</v>
+        <v>-3.539679288864136</v>
       </c>
       <c r="EU2" t="n">
-        <v>3.919382333755493</v>
+        <v>3.327637434005737</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.6239352226257324</v>
+        <v>0.1317120343446732</v>
       </c>
       <c r="EW2" t="n">
-        <v>-1.693751811981201</v>
+        <v>-2.222818374633789</v>
       </c>
       <c r="EX2" t="n">
-        <v>-17.71263122558594</v>
+        <v>-17.12767219543457</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.957440376281738</v>
+        <v>1.345372796058655</v>
       </c>
       <c r="EZ2" t="n">
-        <v>1.493107557296753</v>
+        <v>1.00767457485199</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.8586696982383728</v>
+        <v>-1.507341861724854</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.3086616694927216</v>
+        <v>-0.736299991607666</v>
       </c>
       <c r="FC2" t="n">
-        <v>3.64886999130249</v>
+        <v>3.025838375091553</v>
       </c>
       <c r="FD2" t="n">
-        <v>-1.287616491317749</v>
+        <v>-1.83116602897644</v>
       </c>
       <c r="FE2" t="n">
-        <v>-11.64377403259277</v>
+        <v>-12.2460241317749</v>
       </c>
       <c r="FF2" t="n">
-        <v>-1.532427072525024</v>
+        <v>-1.32008969783783</v>
       </c>
       <c r="FG2" t="n">
-        <v>-17.67650604248047</v>
+        <v>-17.07842254638672</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.288893073797226</v>
+        <v>-0.2068586051464081</v>
       </c>
       <c r="FI2" t="n">
-        <v>-15.35430431365967</v>
+        <v>-15.92548751831055</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-4.248391151428223</v>
+        <v>-4.808448791503906</v>
       </c>
       <c r="FK2" t="n">
-        <v>11.87381172180176</v>
+        <v>11.30944061279297</v>
       </c>
       <c r="FL2" t="n">
-        <v>-9.831463813781738</v>
+        <v>-9.326630592346191</v>
       </c>
       <c r="FM2" t="n">
-        <v>4.433557987213135</v>
+        <v>4.898775577545166</v>
       </c>
       <c r="FN2" t="n">
-        <v>5.227686882019043</v>
+        <v>5.857431888580322</v>
       </c>
       <c r="FO2" t="n">
-        <v>2.113890886306763</v>
+        <v>1.965885400772095</v>
       </c>
       <c r="FP2" t="n">
-        <v>-1.527325034141541</v>
+        <v>-0.977621853351593</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.3288300633430481</v>
+        <v>0.6202929019927979</v>
       </c>
       <c r="FR2" t="n">
-        <v>3.034353017807007</v>
+        <v>2.929690837860107</v>
       </c>
       <c r="FS2" t="n">
-        <v>-0.1654120832681656</v>
+        <v>0.4664163887500763</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.6030107736587524</v>
+        <v>-0.4299568235874176</v>
       </c>
       <c r="FU2" t="n">
-        <v>-5.825576305389404</v>
+        <v>-6.521480083465576</v>
       </c>
       <c r="FV2" t="n">
-        <v>0.2106522470712662</v>
+        <v>-0.4074081778526306</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.8360021710395813</v>
+        <v>0.1933269947767258</v>
       </c>
       <c r="FX2" t="n">
-        <v>3.12323260307312</v>
+        <v>2.553069591522217</v>
       </c>
       <c r="FY2" t="n">
-        <v>0.617308497428894</v>
+        <v>1.232868671417236</v>
       </c>
       <c r="FZ2" t="n">
-        <v>0.2094058990478516</v>
+        <v>-0.3058839738368988</v>
       </c>
       <c r="GA2" t="n">
-        <v>-3.856694221496582</v>
+        <v>-3.244606733322144</v>
       </c>
       <c r="GB2" t="n">
-        <v>4.686748504638672</v>
+        <v>4.096271991729736</v>
       </c>
       <c r="GC2" t="n">
-        <v>-3.469319343566895</v>
+        <v>-3.069329261779785</v>
       </c>
       <c r="GD2" t="n">
-        <v>-0.8028746843338013</v>
+        <v>-1.297854065895081</v>
       </c>
       <c r="GE2" t="n">
-        <v>-1.581696271896362</v>
+        <v>-1.305680513381958</v>
       </c>
       <c r="GF2" t="n">
-        <v>1.326726794242859</v>
+        <v>1.994311451911926</v>
       </c>
       <c r="GG2" t="n">
-        <v>0.7356712222099304</v>
+        <v>1.000222086906433</v>
       </c>
       <c r="GH2" t="n">
-        <v>3.852358341217041</v>
+        <v>4.393524169921875</v>
       </c>
       <c r="GI2" t="n">
-        <v>-3.574638366699219</v>
+        <v>-3.01641058921814</v>
       </c>
       <c r="GJ2" t="n">
-        <v>1.203616499900818</v>
+        <v>0.6484742760658264</v>
       </c>
       <c r="GK2" t="n">
-        <v>-11.31873607635498</v>
+        <v>-10.70561504364014</v>
       </c>
       <c r="GL2" t="n">
-        <v>-13.39164447784424</v>
+        <v>-12.86544799804688</v>
       </c>
       <c r="GM2" t="n">
-        <v>7.053640842437744</v>
+        <v>6.52195405960083</v>
       </c>
       <c r="GN2" t="n">
-        <v>-4.669886112213135</v>
+        <v>-4.259923934936523</v>
       </c>
       <c r="GO2" t="n">
-        <v>13.35455989837646</v>
+        <v>12.79720211029053</v>
       </c>
       <c r="GP2" t="n">
-        <v>-0.6641095280647278</v>
+        <v>-0.08831080794334412</v>
       </c>
       <c r="GQ2" t="n">
-        <v>0.08984217792749405</v>
+        <v>-0.4805410802364349</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.5479114055633545</v>
+        <v>0.6436027884483337</v>
       </c>
       <c r="GS2" t="n">
-        <v>-4.278128623962402</v>
+        <v>-3.770079612731934</v>
       </c>
       <c r="GT2" t="n">
-        <v>-1.11801552772522</v>
+        <v>-0.5201618075370789</v>
       </c>
       <c r="GU2" t="n">
-        <v>-0.4352509081363678</v>
+        <v>-1.064234733581543</v>
       </c>
       <c r="GV2" t="n">
-        <v>1.374434471130371</v>
+        <v>1.049909114837646</v>
       </c>
       <c r="GW2" t="n">
-        <v>-11.02972316741943</v>
+        <v>-10.48535346984863</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.6427048444747925</v>
+        <v>0.02130238525569439</v>
       </c>
       <c r="GY2" t="n">
-        <v>-1.085983157157898</v>
+        <v>-1.040433645248413</v>
       </c>
     </row>
   </sheetData>

--- a/static/Models/Classification/Equation/Service Sector.xlsx
+++ b/static/Models/Classification/Equation/Service Sector.xlsx
@@ -1473,626 +1473,626 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-03-05</t>
+          <t>2024-03-06</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8.972151756286621</v>
+        <v>8.526013374328613</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.12754237651825</v>
+        <v>-1.831014752388</v>
       </c>
       <c r="D2" t="n">
-        <v>12.83368301391602</v>
+        <v>13.32939338684082</v>
       </c>
       <c r="E2" t="n">
-        <v>8.938862800598145</v>
+        <v>9.211461067199707</v>
       </c>
       <c r="F2" t="n">
-        <v>1.796847343444824</v>
+        <v>1.356877565383911</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.596035242080688</v>
+        <v>-3.338017225265503</v>
       </c>
       <c r="H2" t="n">
-        <v>1.260943293571472</v>
+        <v>0.6307573914527893</v>
       </c>
       <c r="I2" t="n">
-        <v>-1.195608854293823</v>
+        <v>-0.6653425097465515</v>
       </c>
       <c r="J2" t="n">
-        <v>-3.960973739624023</v>
+        <v>-4.097872734069824</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.1124440878629684</v>
+        <v>0.3933358192443848</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.117923736572266</v>
+        <v>-2.772336721420288</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2236077040433884</v>
+        <v>-0.1760831773281097</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.15204644203186</v>
+        <v>-1.423227548599243</v>
       </c>
       <c r="O2" t="n">
-        <v>5.588955402374268</v>
+        <v>5.060649871826172</v>
       </c>
       <c r="P2" t="n">
-        <v>-2.426779508590698</v>
+        <v>-1.874467849731445</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.334888458251953</v>
+        <v>8.359003067016602</v>
       </c>
       <c r="R2" t="n">
-        <v>-3.539100170135498</v>
+        <v>-2.965274810791016</v>
       </c>
       <c r="S2" t="n">
-        <v>-14.96136379241943</v>
+        <v>-14.8992862701416</v>
       </c>
       <c r="T2" t="n">
-        <v>-7.831205368041992</v>
+        <v>-7.336800575256348</v>
       </c>
       <c r="U2" t="n">
-        <v>-15.15066242218018</v>
+        <v>-14.44194889068604</v>
       </c>
       <c r="V2" t="n">
-        <v>1.359828472137451</v>
+        <v>0.5151810646057129</v>
       </c>
       <c r="W2" t="n">
-        <v>-13.43941974639893</v>
+        <v>-12.82194519042969</v>
       </c>
       <c r="X2" t="n">
-        <v>-3.228047609329224</v>
+        <v>-2.618973255157471</v>
       </c>
       <c r="Y2" t="n">
-        <v>-7.671164035797119</v>
+        <v>-8.268362045288086</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.33869194984436</v>
+        <v>1.998318910598755</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.5618107318878174</v>
+        <v>0.14788918197155</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.5700387358665466</v>
+        <v>0.01133894920349121</v>
       </c>
       <c r="AC2" t="n">
-        <v>-2.706214427947998</v>
+        <v>-2.096816539764404</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.3396220803260803</v>
+        <v>0.8123905658721924</v>
       </c>
       <c r="AE2" t="n">
-        <v>-3.231419563293457</v>
+        <v>-2.679316759109497</v>
       </c>
       <c r="AF2" t="n">
-        <v>-1.462538242340088</v>
+        <v>-1.979705691337585</v>
       </c>
       <c r="AG2" t="n">
-        <v>-5.901115894317627</v>
+        <v>-5.322746753692627</v>
       </c>
       <c r="AH2" t="n">
-        <v>-1.914337158203125</v>
+        <v>-2.558757305145264</v>
       </c>
       <c r="AI2" t="n">
-        <v>17.75154685974121</v>
+        <v>17.72400283813477</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-1.062742114067078</v>
+        <v>-0.2011410146951675</v>
       </c>
       <c r="AK2" t="n">
-        <v>2.300338983535767</v>
+        <v>3.051124811172485</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.931016206741333</v>
+        <v>1.196320414543152</v>
       </c>
       <c r="AM2" t="n">
-        <v>-10.95402240753174</v>
+        <v>-10.32350921630859</v>
       </c>
       <c r="AN2" t="n">
-        <v>-0.214572936296463</v>
+        <v>-0.7888609766960144</v>
       </c>
       <c r="AO2" t="n">
-        <v>-14.67223262786865</v>
+        <v>-13.89248466491699</v>
       </c>
       <c r="AP2" t="n">
-        <v>11.96778011322021</v>
+        <v>12.53109931945801</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.377119302749634</v>
+        <v>1.803235173225403</v>
       </c>
       <c r="AR2" t="n">
-        <v>-2.822299957275391</v>
+        <v>-2.254036903381348</v>
       </c>
       <c r="AS2" t="n">
-        <v>-6.393134593963623</v>
+        <v>-6.961706161499023</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.008241061121225357</v>
+        <v>-0.9262834191322327</v>
       </c>
       <c r="AU2" t="n">
-        <v>-1.471497178077698</v>
+        <v>-1.953256726264954</v>
       </c>
       <c r="AV2" t="n">
-        <v>-6.873578548431396</v>
+        <v>-6.168188571929932</v>
       </c>
       <c r="AW2" t="n">
-        <v>2.830456495285034</v>
+        <v>2.361890077590942</v>
       </c>
       <c r="AX2" t="n">
-        <v>-0.6247391104698181</v>
+        <v>-0.0283643901348114</v>
       </c>
       <c r="AY2" t="n">
-        <v>-10.59123706817627</v>
+        <v>-9.962093353271484</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-4.775893211364746</v>
+        <v>-5.426830768585205</v>
       </c>
       <c r="BA2" t="n">
-        <v>8.834288597106934</v>
+        <v>8.243959426879883</v>
       </c>
       <c r="BB2" t="n">
-        <v>4.268460750579834</v>
+        <v>4.269460201263428</v>
       </c>
       <c r="BC2" t="n">
-        <v>1.475598931312561</v>
+        <v>1.273804187774658</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.212455689907074</v>
+        <v>0.6592042446136475</v>
       </c>
       <c r="BE2" t="n">
-        <v>-1.354389071464539</v>
+        <v>-1.190031886100769</v>
       </c>
       <c r="BF2" t="n">
-        <v>-0.2402303814888</v>
+        <v>-0.005709930323064327</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.5899507999420166</v>
+        <v>1.075201630592346</v>
       </c>
       <c r="BH2" t="n">
-        <v>0.772855818271637</v>
+        <v>1.204192042350769</v>
       </c>
       <c r="BI2" t="n">
-        <v>-6.679633140563965</v>
+        <v>-6.172255992889404</v>
       </c>
       <c r="BJ2" t="n">
-        <v>4.299355506896973</v>
+        <v>3.832871198654175</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.03954038769006729</v>
+        <v>0.3330252468585968</v>
       </c>
       <c r="BL2" t="n">
-        <v>6.825680255889893</v>
+        <v>6.379059314727783</v>
       </c>
       <c r="BM2" t="n">
-        <v>-6.934635639190674</v>
+        <v>-6.430997371673584</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.1186108216643333</v>
+        <v>-1.032480001449585</v>
       </c>
       <c r="BO2" t="n">
-        <v>3.049165725708008</v>
+        <v>3.849637269973755</v>
       </c>
       <c r="BP2" t="n">
-        <v>-1.574810028076172</v>
+        <v>-0.9600436091423035</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-5.071342468261719</v>
+        <v>-5.530325889587402</v>
       </c>
       <c r="BR2" t="n">
-        <v>4.595117092132568</v>
+        <v>4.245524883270264</v>
       </c>
       <c r="BS2" t="n">
-        <v>1.569224119186401</v>
+        <v>2.338403463363647</v>
       </c>
       <c r="BT2" t="n">
-        <v>3.759232044219971</v>
+        <v>3.277839660644531</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.453273206949234</v>
+        <v>0.8768822550773621</v>
       </c>
       <c r="BV2" t="n">
-        <v>-6.17901086807251</v>
+        <v>-7.039832592010498</v>
       </c>
       <c r="BW2" t="n">
-        <v>1.645384907722473</v>
+        <v>0.8909578919410706</v>
       </c>
       <c r="BX2" t="n">
-        <v>-5.310604572296143</v>
+        <v>-5.686775207519531</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.3314506411552429</v>
+        <v>0.4888584613800049</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-3.26262092590332</v>
+        <v>-3.10728645324707</v>
       </c>
       <c r="CA2" t="n">
-        <v>-10.94067859649658</v>
+        <v>-11.42322826385498</v>
       </c>
       <c r="CB2" t="n">
-        <v>-1.955849647521973</v>
+        <v>-2.340125799179077</v>
       </c>
       <c r="CC2" t="n">
-        <v>3.364631175994873</v>
+        <v>3.866551399230957</v>
       </c>
       <c r="CD2" t="n">
-        <v>-3.16049337387085</v>
+        <v>-2.814924240112305</v>
       </c>
       <c r="CE2" t="n">
-        <v>-2.680142164230347</v>
+        <v>-1.875984072685242</v>
       </c>
       <c r="CF2" t="n">
-        <v>1.130133748054504</v>
+        <v>0.5866866111755371</v>
       </c>
       <c r="CG2" t="n">
-        <v>2.604500532150269</v>
+        <v>2.114553689956665</v>
       </c>
       <c r="CH2" t="n">
-        <v>-19.08449363708496</v>
+        <v>-19.58138656616211</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.02153952233493328</v>
+        <v>0.4416215419769287</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-13.92168998718262</v>
+        <v>-14.38513565063477</v>
       </c>
       <c r="CK2" t="n">
-        <v>-1.443164706230164</v>
+        <v>-1.484805941581726</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.2962542772293091</v>
+        <v>0.1486490368843079</v>
       </c>
       <c r="CM2" t="n">
-        <v>-12.02121829986572</v>
+        <v>-12.52195644378662</v>
       </c>
       <c r="CN2" t="n">
-        <v>-1.193337082862854</v>
+        <v>-0.6345793604850769</v>
       </c>
       <c r="CO2" t="n">
-        <v>-2.097321271896362</v>
+        <v>-1.671781659126282</v>
       </c>
       <c r="CP2" t="n">
-        <v>7.310429096221924</v>
+        <v>6.705099105834961</v>
       </c>
       <c r="CQ2" t="n">
-        <v>4.374820232391357</v>
+        <v>3.844469547271729</v>
       </c>
       <c r="CR2" t="n">
-        <v>4.689534664154053</v>
+        <v>4.243672370910645</v>
       </c>
       <c r="CS2" t="n">
-        <v>0.4375731348991394</v>
+        <v>0.9718091487884521</v>
       </c>
       <c r="CT2" t="n">
-        <v>-1.229175090789795</v>
+        <v>-0.7332871556282043</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.9339132308959961</v>
+        <v>1.28659188747406</v>
       </c>
       <c r="CV2" t="n">
-        <v>-2.871947526931763</v>
+        <v>-3.524573087692261</v>
       </c>
       <c r="CW2" t="n">
-        <v>-6.855079650878906</v>
+        <v>-6.317318439483643</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.9704998135566711</v>
+        <v>-0.2356381863355637</v>
       </c>
       <c r="CY2" t="n">
-        <v>-5.929949760437012</v>
+        <v>-6.398672103881836</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-3.924474477767944</v>
+        <v>-4.479827880859375</v>
       </c>
       <c r="DA2" t="n">
-        <v>-3.366333484649658</v>
+        <v>-3.849189281463623</v>
       </c>
       <c r="DB2" t="n">
-        <v>-7.460931777954102</v>
+        <v>-8.088029861450195</v>
       </c>
       <c r="DC2" t="n">
-        <v>0.2618848979473114</v>
+        <v>0.6301931142807007</v>
       </c>
       <c r="DD2" t="n">
-        <v>-13.2446870803833</v>
+        <v>-13.93493843078613</v>
       </c>
       <c r="DE2" t="n">
-        <v>-3.36057186126709</v>
+        <v>-2.90424656867981</v>
       </c>
       <c r="DF2" t="n">
-        <v>-0.941342294216156</v>
+        <v>-1.523690342903137</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.5581049919128418</v>
+        <v>-0.04619137942790985</v>
       </c>
       <c r="DH2" t="n">
-        <v>-12.88201141357422</v>
+        <v>-12.32195377349854</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.2407464981079102</v>
+        <v>-0.05105891451239586</v>
       </c>
       <c r="DJ2" t="n">
-        <v>10.49638557434082</v>
+        <v>10.96615123748779</v>
       </c>
       <c r="DK2" t="n">
-        <v>2.250959396362305</v>
+        <v>2.829302549362183</v>
       </c>
       <c r="DL2" t="n">
-        <v>-17.09328460693359</v>
+        <v>-17.67326354980469</v>
       </c>
       <c r="DM2" t="n">
-        <v>-0.01161623280495405</v>
+        <v>-0.801011860370636</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.387871652841568</v>
+        <v>0.8464180827140808</v>
       </c>
       <c r="DO2" t="n">
-        <v>-5.045462608337402</v>
+        <v>-4.464347362518311</v>
       </c>
       <c r="DP2" t="n">
-        <v>16.22263526916504</v>
+        <v>15.7765007019043</v>
       </c>
       <c r="DQ2" t="n">
-        <v>0.5923758745193481</v>
+        <v>1.057577729225159</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.05967320501804352</v>
+        <v>0.538788914680481</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.862087070941925</v>
+        <v>-1.421782612800598</v>
       </c>
       <c r="DT2" t="n">
-        <v>5.285290718078613</v>
+        <v>4.61217737197876</v>
       </c>
       <c r="DU2" t="n">
-        <v>-9.582780838012695</v>
+        <v>-10.09226608276367</v>
       </c>
       <c r="DV2" t="n">
-        <v>3.142393112182617</v>
+        <v>3.669253349304199</v>
       </c>
       <c r="DW2" t="n">
-        <v>2.053731918334961</v>
+        <v>1.437040567398071</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.6511483788490295</v>
+        <v>-0.1282458752393723</v>
       </c>
       <c r="DY2" t="n">
-        <v>-2.744159936904907</v>
+        <v>-2.495231866836548</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-2.567217111587524</v>
+        <v>-1.903684735298157</v>
       </c>
       <c r="EA2" t="n">
-        <v>13.65653038024902</v>
+        <v>13.08646678924561</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.5573248863220215</v>
+        <v>1.02482795715332</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.7598532438278198</v>
+        <v>-0.2016011625528336</v>
       </c>
       <c r="ED2" t="n">
-        <v>-6.576515197753906</v>
+        <v>-6.092777729034424</v>
       </c>
       <c r="EE2" t="n">
-        <v>-2.283752679824829</v>
+        <v>-1.813504815101624</v>
       </c>
       <c r="EF2" t="n">
-        <v>-0.719380259513855</v>
+        <v>-0.1350750327110291</v>
       </c>
       <c r="EG2" t="n">
-        <v>-0.261532723903656</v>
+        <v>0.3618688881397247</v>
       </c>
       <c r="EH2" t="n">
-        <v>-9.393424987792969</v>
+        <v>-10.32972812652588</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.6095439791679382</v>
+        <v>1.365873456001282</v>
       </c>
       <c r="EJ2" t="n">
-        <v>13.98612785339355</v>
+        <v>13.34666538238525</v>
       </c>
       <c r="EK2" t="n">
-        <v>5.099864482879639</v>
+        <v>5.498120784759521</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.7045766115188599</v>
+        <v>1.169128775596619</v>
       </c>
       <c r="EM2" t="n">
-        <v>8.167463302612305</v>
+        <v>8.533499717712402</v>
       </c>
       <c r="EN2" t="n">
-        <v>8.244505882263184</v>
+        <v>8.966358184814453</v>
       </c>
       <c r="EO2" t="n">
-        <v>7.91384744644165</v>
+        <v>7.422984600067139</v>
       </c>
       <c r="EP2" t="n">
-        <v>-10.04201507568359</v>
+        <v>-9.492182731628418</v>
       </c>
       <c r="EQ2" t="n">
-        <v>13.20245838165283</v>
+        <v>14.09637069702148</v>
       </c>
       <c r="ER2" t="n">
-        <v>1.75492262840271</v>
+        <v>0.9385077953338623</v>
       </c>
       <c r="ES2" t="n">
-        <v>-19.82475090026855</v>
+        <v>-20.392822265625</v>
       </c>
       <c r="ET2" t="n">
-        <v>-3.539679288864136</v>
+        <v>-3.03808856010437</v>
       </c>
       <c r="EU2" t="n">
-        <v>3.327637434005737</v>
+        <v>2.747650384902954</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.1317120343446732</v>
+        <v>0.5748130083084106</v>
       </c>
       <c r="EW2" t="n">
-        <v>-2.222818374633789</v>
+        <v>-1.634311676025391</v>
       </c>
       <c r="EX2" t="n">
-        <v>-17.12767219543457</v>
+        <v>-16.47647094726562</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.345372796058655</v>
+        <v>1.756195187568665</v>
       </c>
       <c r="EZ2" t="n">
-        <v>1.00767457485199</v>
+        <v>0.3281983435153961</v>
       </c>
       <c r="FA2" t="n">
-        <v>-1.507341861724854</v>
+        <v>-0.846604585647583</v>
       </c>
       <c r="FB2" t="n">
-        <v>-0.736299991607666</v>
+        <v>-0.2625170648097992</v>
       </c>
       <c r="FC2" t="n">
-        <v>3.025838375091553</v>
+        <v>3.554864645004272</v>
       </c>
       <c r="FD2" t="n">
-        <v>-1.83116602897644</v>
+        <v>-2.195111274719238</v>
       </c>
       <c r="FE2" t="n">
-        <v>-12.2460241317749</v>
+        <v>-12.79977798461914</v>
       </c>
       <c r="FF2" t="n">
-        <v>-1.32008969783783</v>
+        <v>-0.7829545140266418</v>
       </c>
       <c r="FG2" t="n">
-        <v>-17.07842254638672</v>
+        <v>-17.58602333068848</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.2068586051464081</v>
+        <v>-0.7559595108032227</v>
       </c>
       <c r="FI2" t="n">
-        <v>-15.92548751831055</v>
+        <v>-16.58934211730957</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-4.808448791503906</v>
+        <v>-4.251462459564209</v>
       </c>
       <c r="FK2" t="n">
-        <v>11.30944061279297</v>
+        <v>10.68578910827637</v>
       </c>
       <c r="FL2" t="n">
-        <v>-9.326630592346191</v>
+        <v>-9.652946472167969</v>
       </c>
       <c r="FM2" t="n">
-        <v>4.898775577545166</v>
+        <v>4.167532444000244</v>
       </c>
       <c r="FN2" t="n">
-        <v>5.857431888580322</v>
+        <v>5.410810947418213</v>
       </c>
       <c r="FO2" t="n">
-        <v>1.965885400772095</v>
+        <v>2.567711591720581</v>
       </c>
       <c r="FP2" t="n">
-        <v>-0.977621853351593</v>
+        <v>-1.675243258476257</v>
       </c>
       <c r="FQ2" t="n">
-        <v>0.6202929019927979</v>
+        <v>1.091080665588379</v>
       </c>
       <c r="FR2" t="n">
-        <v>2.929690837860107</v>
+        <v>3.405992031097412</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.4664163887500763</v>
+        <v>0.9549797177314758</v>
       </c>
       <c r="FT2" t="n">
-        <v>-0.4299568235874176</v>
+        <v>-0.2114840596914291</v>
       </c>
       <c r="FU2" t="n">
-        <v>-6.521480083465576</v>
+        <v>-6.023851871490479</v>
       </c>
       <c r="FV2" t="n">
-        <v>-0.4074081778526306</v>
+        <v>-0.1092799156904221</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.1933269947767258</v>
+        <v>0.613157331943512</v>
       </c>
       <c r="FX2" t="n">
-        <v>2.553069591522217</v>
+        <v>1.747719645500183</v>
       </c>
       <c r="FY2" t="n">
-        <v>1.232868671417236</v>
+        <v>1.879134178161621</v>
       </c>
       <c r="FZ2" t="n">
-        <v>-0.3058839738368988</v>
+        <v>0.2997402250766754</v>
       </c>
       <c r="GA2" t="n">
-        <v>-3.244606733322144</v>
+        <v>-2.695420503616333</v>
       </c>
       <c r="GB2" t="n">
-        <v>4.096271991729736</v>
+        <v>3.525263547897339</v>
       </c>
       <c r="GC2" t="n">
-        <v>-3.069329261779785</v>
+        <v>-3.457543134689331</v>
       </c>
       <c r="GD2" t="n">
-        <v>-1.297854065895081</v>
+        <v>-1.774066925048828</v>
       </c>
       <c r="GE2" t="n">
-        <v>-1.305680513381958</v>
+        <v>-0.8198444843292236</v>
       </c>
       <c r="GF2" t="n">
-        <v>1.994311451911926</v>
+        <v>2.418468713760376</v>
       </c>
       <c r="GG2" t="n">
-        <v>1.000222086906433</v>
+        <v>0.6107885837554932</v>
       </c>
       <c r="GH2" t="n">
-        <v>4.393524169921875</v>
+        <v>5.025327682495117</v>
       </c>
       <c r="GI2" t="n">
-        <v>-3.01641058921814</v>
+        <v>-2.38813042640686</v>
       </c>
       <c r="GJ2" t="n">
-        <v>0.6484742760658264</v>
+        <v>-0.02576817013323307</v>
       </c>
       <c r="GK2" t="n">
-        <v>-10.70561504364014</v>
+        <v>-11.31859016418457</v>
       </c>
       <c r="GL2" t="n">
-        <v>-12.86544799804688</v>
+        <v>-13.84570693969727</v>
       </c>
       <c r="GM2" t="n">
-        <v>6.52195405960083</v>
+        <v>5.880855083465576</v>
       </c>
       <c r="GN2" t="n">
-        <v>-4.259923934936523</v>
+        <v>-4.666442394256592</v>
       </c>
       <c r="GO2" t="n">
-        <v>12.79720211029053</v>
+        <v>12.81575584411621</v>
       </c>
       <c r="GP2" t="n">
-        <v>-0.08831080794334412</v>
+        <v>0.4516220986843109</v>
       </c>
       <c r="GQ2" t="n">
-        <v>-0.4805410802364349</v>
+        <v>0.1913766413927078</v>
       </c>
       <c r="GR2" t="n">
-        <v>0.6436027884483337</v>
+        <v>-0.1492104679346085</v>
       </c>
       <c r="GS2" t="n">
-        <v>-3.770079612731934</v>
+        <v>-3.152701377868652</v>
       </c>
       <c r="GT2" t="n">
-        <v>-0.5201618075370789</v>
+        <v>-0.681489109992981</v>
       </c>
       <c r="GU2" t="n">
-        <v>-1.064234733581543</v>
+        <v>-1.575563192367554</v>
       </c>
       <c r="GV2" t="n">
-        <v>1.049909114837646</v>
+        <v>0.6409264802932739</v>
       </c>
       <c r="GW2" t="n">
-        <v>-10.48535346984863</v>
+        <v>-10.70613479614258</v>
       </c>
       <c r="GX2" t="n">
-        <v>0.02130238525569439</v>
+        <v>-0.2145032286643982</v>
       </c>
       <c r="GY2" t="n">
-        <v>-1.040433645248413</v>
+        <v>-0.5696414113044739</v>
       </c>
     </row>
   </sheetData>
